--- a/Automotive/BMW.xlsx
+++ b/Automotive/BMW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Automotive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16EC403-D189-496C-A304-4C726FFD7B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB2070D-0B8E-4E55-97C4-F9697573CB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$17</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$16:$T$16</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$17:$T$17</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$T$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$T$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$3:$T$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$4:$T$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$T$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$3:$T$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$4:$T$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$17</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$18</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$17:$T$17</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$18:$T$18</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$T$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="214">
   <si>
     <t>Price</t>
   </si>
@@ -381,9 +381,6 @@
   </si>
   <si>
     <t>Operational Income</t>
-  </si>
-  <si>
-    <t>Cash</t>
   </si>
   <si>
     <t>Other</t>
@@ -710,25 +707,10 @@
     <t>Deliveries</t>
   </si>
   <si>
-    <t>Macan</t>
-  </si>
-  <si>
-    <t>Cayenne</t>
-  </si>
-  <si>
-    <t>Panamera</t>
-  </si>
-  <si>
-    <t>Taycan</t>
-  </si>
-  <si>
     <t>NA y/y</t>
   </si>
   <si>
     <t>China y/y</t>
-  </si>
-  <si>
-    <t>911 y/y</t>
   </si>
   <si>
     <t>Taycan y/y</t>
@@ -737,19 +719,7 @@
     <t>SUVs y/y</t>
   </si>
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
     <t>Distribution Expense</t>
-  </si>
-  <si>
-    <t>Administrative expense</t>
-  </si>
-  <si>
-    <t>Investments</t>
-  </si>
-  <si>
-    <t>Interest net</t>
   </si>
   <si>
     <t>Distribution Exp / REV</t>
@@ -759,30 +729,6 @@
   </si>
   <si>
     <t>Tax Rate</t>
-  </si>
-  <si>
-    <t>Financial Service Receivables</t>
-  </si>
-  <si>
-    <t>Tax Receivables</t>
-  </si>
-  <si>
-    <t>Securities</t>
-  </si>
-  <si>
-    <t>Assets held for sale</t>
-  </si>
-  <si>
-    <t>Leased assets</t>
-  </si>
-  <si>
-    <t>Financial liabilities</t>
-  </si>
-  <si>
-    <t>Trade payables</t>
-  </si>
-  <si>
-    <t>Liabilities asset for sale</t>
   </si>
   <si>
     <t>Provisions</t>
@@ -885,6 +831,135 @@
   </si>
   <si>
     <t>2bn until 12/25</t>
+  </si>
+  <si>
+    <t>seit 99 bei BMW</t>
+  </si>
+  <si>
+    <t>seit 2002 bei bmw</t>
+  </si>
+  <si>
+    <t>Opel, General Motors, seit 2011 BMW, leitet RollsRoyce</t>
+  </si>
+  <si>
+    <t>seit 95 bei bmw</t>
+  </si>
+  <si>
+    <t>seit 93 bei bmw</t>
+  </si>
+  <si>
+    <t>seit 99 bei bmw</t>
+  </si>
+  <si>
+    <t>EV Share</t>
+  </si>
+  <si>
+    <t>Motorcycle</t>
+  </si>
+  <si>
+    <t>BEV</t>
+  </si>
+  <si>
+    <t>MINI</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>PHEV</t>
+  </si>
+  <si>
+    <t>BEV y/y</t>
+  </si>
+  <si>
+    <t>PHEVs y/y</t>
+  </si>
+  <si>
+    <t>Modelle</t>
+  </si>
+  <si>
+    <t>1er2er</t>
+  </si>
+  <si>
+    <t>3er4er</t>
+  </si>
+  <si>
+    <t>5er6er</t>
+  </si>
+  <si>
+    <t>7er8er</t>
+  </si>
+  <si>
+    <t>z4</t>
+  </si>
+  <si>
+    <t>x1x2</t>
+  </si>
+  <si>
+    <t>x3x4</t>
+  </si>
+  <si>
+    <t>x5x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>iX</t>
+  </si>
+  <si>
+    <t>XM</t>
+  </si>
+  <si>
+    <t>i3i8</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>davon BEV</t>
+  </si>
+  <si>
+    <t>davon PHEV</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>Other expense</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Other Financial</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>Other Finance</t>
+  </si>
+  <si>
+    <t>Receivables Finance</t>
+  </si>
+  <si>
+    <t>Trade Receivables</t>
+  </si>
+  <si>
+    <t>Other Value</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>Finance Liab</t>
+  </si>
+  <si>
+    <t>Pension</t>
+  </si>
+  <si>
+    <t>Other liab</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1709,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1853,7 +1928,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2110,29 +2192,14 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8043</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9879</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8828</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>10097</c:v>
+                  <c:v>36853</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10334</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9701</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10398</c:v>
+                  <c:v>37219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9011</c:v>
+                  <c:v>36614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2164,7 +2231,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$21</c:f>
+              <c:f>Model!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2241,7 +2308,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$21:$T$21</c:f>
+              <c:f>Model!$L$22:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2258,19 +2325,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25537734676115886</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6057293248304543E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8889895786135051E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.10755670000990392</c:v>
+                  <c:v>-6.4852250834396274E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2760,15 +2827,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="2">
-                  <c:v>33138</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37637</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40530</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2798,7 +2856,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$21</c:f>
+              <c:f>Model!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2885,7 +2943,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$21:$I$21</c:f>
+              <c:f>Model!$C$22:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2896,13 +2954,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13576558633592861</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6865850094322008E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.7633851468048309E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.359807155544269E-2</c:v>
@@ -3249,7 +3307,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$14</c:f>
+              <c:f>Model!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3400,36 +3458,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$14:$T$14</c:f>
+              <c:f>Model!$L$15:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1011</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1191</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1407</c:v>
+                  <c:v>3662</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1360</c:v>
+                  <c:v>2958</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1172</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1217</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>926</c:v>
+                  <c:v>2951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3461,7 +3519,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$18</c:f>
+              <c:f>Model!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3538,36 +3596,36 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$18:$T$18</c:f>
+              <c:f>Model!$L$19:$T$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.2719134651249534</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29021155987448122</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28738106026280019</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27899376052292757</c:v>
+                  <c:v>0.21089192196022033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29920650280627059</c:v>
+                  <c:v>0.1915688223756683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27626017936295222</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29015195229851898</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25713017423149487</c:v>
+                  <c:v>0.17927568689572293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3911,7 +3969,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$14</c:f>
+              <c:f>Model!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4014,7 +4072,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$14:$I$14</c:f>
+              <c:f>Model!$C$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4025,13 +4083,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4038</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4967</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5156</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4063,7 +4121,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$25</c:f>
+              <c:f>Model!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4138,7 +4196,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$25:$I$25</c:f>
+              <c:f>Model!$C$26:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4149,10 +4207,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23006438831104514</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8051137507549848E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-0.22614840989399299</c:v>
@@ -4517,7 +4575,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$22</c:f>
+              <c:f>Model!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4639,30 +4697,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$22:$R$22</c:f>
+              <c:f>Model!$L$23:$R$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.2840979733930128E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3750379593076221E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.196193928409606E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1599484995543232E-2</c:v>
+                  <c:v>6.401107101185792E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4704857751112838E-2</c:v>
+                  <c:v>7.066283349901932E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3909906195237601E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4679,7 +4737,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$23</c:f>
+              <c:f>Model!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4772,33 +4830,33 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$23:$S$23</c:f>
+              <c:f>Model!$L$24:$S$24</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.7743379336068634E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8667881364510576E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6669687358405078E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0411013172229374E-2</c:v>
+                  <c:v>-5.019944102244051E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5417069866460225E-2</c:v>
+                  <c:v>-6.2065074290013162E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1953406865271619E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9238315060588572E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4815,7 +4873,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$24</c:f>
+              <c:f>Model!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4908,7 +4966,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$24:$S$24</c:f>
+              <c:f>Model!$L$25:$S$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5216,7 +5274,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$22</c:f>
+              <c:f>Model!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5332,7 +5390,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$22:$G$22</c:f>
+              <c:f>Model!$C$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5343,13 +5401,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3703301345886892E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2518266599357011E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.078707130520602E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5366,7 +5424,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$23</c:f>
+              <c:f>Model!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5482,7 +5540,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$23:$G$23</c:f>
+              <c:f>Model!$C$24:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5493,13 +5551,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3032168507453679E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3972686452161437E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4090796940537871E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5516,7 +5574,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$24</c:f>
+              <c:f>Model!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5632,7 +5690,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$24:$G$24</c:f>
+              <c:f>Model!$C$25:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6993,18 +7051,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7048,7 +7106,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7068,7 +7126,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7099,18 +7157,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7154,7 +7212,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7174,7 +7232,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13490,8 +13548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13512,38 +13570,38 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="58" t="s">
         <v>44</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>45</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="20">
         <v>45690</v>
@@ -13553,13 +13611,13 @@
       <c r="I3" s="10"/>
       <c r="J3" s="37"/>
       <c r="L3" s="5" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N3" s="150" t="s">
-        <v>169</v>
+        <v>152</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -13572,12 +13630,14 @@
       <c r="I4" s="10"/>
       <c r="J4" s="37"/>
       <c r="L4" s="5" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="M4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
@@ -13587,12 +13647,14 @@
       <c r="I5" s="10"/>
       <c r="J5" s="37"/>
       <c r="L5" s="5" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="M5" t="s">
-        <v>172</v>
-      </c>
-      <c r="N5" s="13"/>
+        <v>154</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
@@ -13606,12 +13668,14 @@
       <c r="I6" s="10"/>
       <c r="J6" s="37"/>
       <c r="L6" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="M6" t="s">
-        <v>173</v>
-      </c>
-      <c r="N6" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -13623,12 +13687,14 @@
       <c r="I7" s="10"/>
       <c r="J7" s="37"/>
       <c r="L7" s="5" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="M7" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
@@ -13643,70 +13709,74 @@
       <c r="I8" s="10"/>
       <c r="J8" s="37"/>
       <c r="L8" s="5" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="M8" t="s">
-        <v>175</v>
-      </c>
-      <c r="N8" s="13"/>
+        <v>157</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!V35+Model!V34</f>
-        <v>6452</v>
+        <f>Model!V36+Model!V35</f>
+        <v>0</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="123"/>
       <c r="I9" s="10"/>
       <c r="J9" s="37"/>
       <c r="L9" s="5" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="M9" t="s">
-        <v>176</v>
-      </c>
-      <c r="N9" s="13"/>
+        <v>158</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!V44+Model!V45</f>
-        <v>7748</v>
+        <f>Model!V47+Model!V48</f>
+        <v>0</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="28"/>
       <c r="I10" s="10"/>
       <c r="J10" s="37"/>
       <c r="L10" s="5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>-1296</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="28"/>
       <c r="I11" s="10"/>
       <c r="J11" s="37"/>
       <c r="L11" s="5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="N11" s="13"/>
     </row>
@@ -13716,25 +13786,25 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>1296</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="28"/>
       <c r="J12" s="13"/>
       <c r="L12" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="36">
-        <f>C6/Model!G16</f>
+        <f>C6/Model!G17</f>
         <v>13.798586572438161</v>
       </c>
       <c r="E13" s="5"/>
@@ -13744,10 +13814,10 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="36">
-        <f>C6/Model!H17</f>
+        <f>C6/Model!H18</f>
         <v>17.831050228310502</v>
       </c>
       <c r="E14" s="22"/>
@@ -13762,32 +13832,32 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="36">
-        <f>C6/Model!I17</f>
+        <f>C6/Model!I18</f>
         <v>16.581740976645435</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="6">
-        <f>Model!H17/Model!G16-1</f>
+        <f>Model!H18/Model!G17-1</f>
         <v>-0.22614840989399299</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6">
-        <f>Model!I17/Model!H17-1</f>
+        <f>Model!I18/Model!H18-1</f>
         <v>7.5342465753424737E-2</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17" s="131"/>
       <c r="M17" s="132"/>
@@ -13795,7 +13865,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="50">
         <f>C14/(C16*100)</f>
@@ -13807,7 +13877,7 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="50">
         <f>C15/(C17*100)</f>
@@ -13819,11 +13889,11 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="6">
+        <v>72</v>
+      </c>
+      <c r="C20" s="6" t="e">
         <f>Model!H4/Model!G3-1</f>
-        <v>-2.7633851468048309E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L20" s="134"/>
       <c r="M20" s="135"/>
@@ -13831,7 +13901,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="6">
         <f>Model!I4/Model!H4-1</f>
@@ -13843,11 +13913,11 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="15">
-        <f>Model!G12+Model!G11</f>
-        <v>7473</v>
+        <f>Model!G13+Model!G11</f>
+        <v>0</v>
       </c>
       <c r="L22" s="134"/>
       <c r="M22" s="135"/>
@@ -13858,8 +13928,8 @@
         <v>16</v>
       </c>
       <c r="C23" s="15">
-        <f>Model!G12</f>
-        <v>7374</v>
+        <f>Model!G13</f>
+        <v>0</v>
       </c>
       <c r="L23" s="134"/>
       <c r="M23" s="135"/>
@@ -13867,11 +13937,11 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="7">
-        <f>Model!V18</f>
-        <v>0.22828593389700236</v>
+        <v>24</v>
+      </c>
+      <c r="C24" s="7" t="e">
+        <f>Model!V19</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="L24" s="134"/>
       <c r="M24" s="135"/>
@@ -13879,11 +13949,11 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="7">
-        <f>Model!V19</f>
-        <v>6.7310859778192594E-2</v>
+        <v>25</v>
+      </c>
+      <c r="C25" s="7" t="e">
+        <f>Model!V20</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="L25" s="134"/>
       <c r="M25" s="135"/>
@@ -13891,11 +13961,11 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="36">
+        <v>65</v>
+      </c>
+      <c r="C26" s="36" t="e">
         <f>C12/C23</f>
-        <v>0.1757526444263629</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L26" s="134"/>
       <c r="M26" s="135"/>
@@ -13903,14 +13973,14 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="118">
-        <f>(Model!V44+Model!V45)/Model!V53</f>
-        <v>0.33174909013059301</v>
+        <v>74</v>
+      </c>
+      <c r="C27" s="118" t="e">
+        <f>(Model!V47+Model!V48)/Model!V59</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L27" s="134"/>
       <c r="M27" s="135"/>
@@ -13918,14 +13988,14 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="36">
+        <v>75</v>
+      </c>
+      <c r="C28" s="36" t="e">
         <f>Model!G9/Model!G11</f>
-        <v>73.575757575757578</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E28" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L28" s="137"/>
       <c r="M28" s="138"/>
@@ -13933,79 +14003,79 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="36">
-        <f>Model!V37/Model!V48</f>
-        <v>1.4076233821646993</v>
+        <v>76</v>
+      </c>
+      <c r="C29" s="36" t="e">
+        <f>Model!V37/Model!V52</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="36">
-        <f>(Model!V35+Model!V34+Model!V31)/Model!V48</f>
-        <v>0.58000284454558382</v>
+        <v>77</v>
+      </c>
+      <c r="C30" s="36" t="e">
+        <f>(Model!V36+Model!V35+Model!V32)/Model!V52</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="6">
-        <f>(Model!V37-Model!V48)/Model!V43</f>
-        <v>0.11004031483970052</v>
+        <v>78</v>
+      </c>
+      <c r="C31" s="6" t="e">
+        <f>(Model!V37-Model!V52)/Model!V46</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E31" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="36" t="e">
-        <f>(Model!V43-Model!V52)/Main!C7</f>
+        <f>(Model!V46-Model!V58)/Main!C7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="36">
-        <f>Model!V3/Model!V43</f>
-        <v>0.17483202150124785</v>
+        <v>80</v>
+      </c>
+      <c r="C33" s="36" t="e">
+        <f>Model!V3/Model!V46</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="37">
-        <f>Model!V14/Model!V43</f>
-        <v>1.1768093684008447E-2</v>
+        <v>81</v>
+      </c>
+      <c r="C34" s="37" t="e">
+        <f>Model!V15/Model!V46</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="37">
-        <f>Model!V14/Model!V53</f>
-        <v>2.6247056304859774E-2</v>
+        <v>82</v>
+      </c>
+      <c r="C35" s="37" t="e">
+        <f>Model!V15/Model!V59</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="23"/>
     </row>
@@ -14020,13 +14090,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:X74"/>
+  <dimension ref="A1:X80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14039,12 +14109,12 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -14059,10 +14129,10 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
@@ -14080,28 +14150,28 @@
         <v>9</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
         <v>35</v>
       </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="W2" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="X2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -14110,59 +14180,34 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="10">
-        <v>33138</v>
-      </c>
-      <c r="F3" s="10">
-        <v>37637</v>
-      </c>
-      <c r="G3" s="15">
-        <v>40530</v>
-      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
-      <c r="L3" s="10">
-        <v>8043</v>
-      </c>
-      <c r="M3" s="10">
-        <f>17922-L3</f>
-        <v>9879</v>
-      </c>
-      <c r="N3" s="10">
-        <f>26750-M3-L3</f>
-        <v>8828</v>
-      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10">
-        <v>10097</v>
+        <v>36853</v>
       </c>
       <c r="Q3" s="10">
-        <f>20431-P3</f>
-        <v>10334</v>
-      </c>
-      <c r="R3" s="10">
-        <f>30132-Q3-P3</f>
-        <v>9701</v>
-      </c>
-      <c r="S3" s="10">
-        <f>G3-R3-Q3-P3</f>
-        <v>10398</v>
-      </c>
+        <v>37219</v>
+      </c>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
       <c r="T3" s="10">
-        <v>9011</v>
+        <v>36614</v>
       </c>
       <c r="U3" s="10">
-        <f>19457-T3</f>
-        <v>10446</v>
-      </c>
-      <c r="V3" s="10">
-        <f>28564-U3-T3</f>
-        <v>9107</v>
-      </c>
+        <v>36944</v>
+      </c>
+      <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -14193,228 +14238,123 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="10">
-        <v>24281</v>
-      </c>
-      <c r="F5" s="10">
-        <v>27089</v>
-      </c>
-      <c r="G5" s="15">
-        <v>28924</v>
-      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="L5" s="10">
-        <v>5856</v>
-      </c>
-      <c r="M5" s="10">
-        <f>12868-L5</f>
-        <v>7012</v>
-      </c>
-      <c r="N5" s="10">
-        <f>19159-M5-L5</f>
-        <v>6291</v>
-      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10">
-        <v>7280</v>
+        <v>29081</v>
       </c>
       <c r="Q5" s="10">
-        <f>14522-P5</f>
-        <v>7242</v>
-      </c>
-      <c r="R5" s="10">
-        <f>21543-Q5-P5</f>
-        <v>7021</v>
-      </c>
-      <c r="S5" s="10">
-        <f>G5-R5-Q5-P5</f>
-        <v>7381</v>
-      </c>
+        <v>30089</v>
+      </c>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
       <c r="T5" s="10">
-        <v>6694</v>
+        <v>30050</v>
       </c>
       <c r="U5" s="10">
-        <f>14251-T5</f>
-        <v>7557</v>
-      </c>
-      <c r="V5" s="10">
-        <f>21279-U5-T5</f>
-        <v>7028</v>
-      </c>
+        <v>30285</v>
+      </c>
+      <c r="V5" s="10"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="10">
-        <v>2111</v>
-      </c>
-      <c r="F6" s="10">
-        <v>2353</v>
-      </c>
-      <c r="G6" s="15">
-        <v>2869</v>
-      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
-      <c r="L6" s="10">
-        <v>425</v>
-      </c>
-      <c r="M6" s="10">
-        <f>956-L6</f>
-        <v>531</v>
-      </c>
-      <c r="N6" s="10">
-        <f>1503-M6-L6</f>
-        <v>547</v>
-      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10">
-        <v>521</v>
+        <v>2359</v>
       </c>
       <c r="Q6" s="10">
-        <f>1293-P6</f>
-        <v>772</v>
-      </c>
-      <c r="R6" s="10">
-        <f>2010-Q6-P6</f>
-        <v>717</v>
-      </c>
-      <c r="S6" s="10">
-        <f>G6-R6-Q6-P6</f>
-        <v>859</v>
-      </c>
-      <c r="T6">
-        <v>657</v>
+        <v>2630</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10">
+        <v>2515</v>
       </c>
       <c r="U6">
-        <f>1379-T6</f>
-        <v>722</v>
-      </c>
-      <c r="V6">
-        <f>2148-U6-T6</f>
-        <v>769</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="10">
-        <v>1426</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1655</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1787</v>
-      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
-      <c r="L7" s="10">
-        <v>384</v>
-      </c>
-      <c r="M7" s="10">
-        <f>766-L7</f>
-        <v>382</v>
-      </c>
-      <c r="N7" s="10">
-        <f>1178-M7-L7</f>
-        <v>412</v>
-      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10">
-        <v>509</v>
+        <v>-185</v>
       </c>
       <c r="Q7" s="10">
-        <f>875-P7</f>
-        <v>366</v>
-      </c>
-      <c r="R7" s="10">
-        <f>1379-Q7-P7</f>
-        <v>504</v>
-      </c>
-      <c r="S7" s="10">
-        <f>G7-R7-Q7-P7</f>
-        <v>408</v>
-      </c>
-      <c r="T7">
-        <v>462</v>
+        <v>-231</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10">
+        <v>-284</v>
       </c>
       <c r="U7">
-        <f>952-T7</f>
-        <v>490</v>
-      </c>
-      <c r="V7">
-        <f>1368-U7-T7</f>
-        <v>416</v>
+        <v>-273</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="10">
-        <v>6</v>
-      </c>
-      <c r="F8" s="10">
-        <f>-1894+1662</f>
-        <v>-232</v>
-      </c>
-      <c r="G8" s="15">
-        <f>-1496+1162</f>
-        <v>-334</v>
-      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="L8" s="10">
-        <v>-89</v>
-      </c>
-      <c r="M8" s="10">
-        <f>-149-L8</f>
-        <v>-60</v>
-      </c>
-      <c r="N8" s="10">
-        <f>-140-M8-L8</f>
-        <v>9</v>
-      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10">
-        <v>-53</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="10">
-        <f>-111-P8</f>
-        <v>-58</v>
-      </c>
-      <c r="R8" s="10">
-        <f>-301-Q8-P8</f>
-        <v>-190</v>
-      </c>
-      <c r="S8" s="10">
-        <f>G8-R8-Q8-P8</f>
-        <v>-33</v>
-      </c>
-      <c r="T8">
-        <v>-84</v>
+        <v>388</v>
+      </c>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10">
+        <v>279</v>
       </c>
       <c r="U8">
-        <f>-187-T8</f>
-        <v>-103</v>
-      </c>
-      <c r="V8">
-        <f>-267-U8-T8</f>
-        <v>-80</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14431,15 +14371,15 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>5314</v>
+        <v>0</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>6772</v>
+        <v>0</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="0"/>
-        <v>7284</v>
+        <v>0</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="0"/>
@@ -14453,2427 +14393,2239 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11">
         <f t="shared" ref="L9:T9" si="1">L3-SUM(L5:L8)</f>
-        <v>1467</v>
+        <v>0</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="1"/>
-        <v>2014</v>
+        <v>0</v>
       </c>
       <c r="N9" s="11">
         <f t="shared" si="1"/>
-        <v>1569</v>
+        <v>0</v>
       </c>
       <c r="O9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P9" s="11">
-        <f t="shared" si="1"/>
-        <v>1840</v>
+        <f>P3-SUM(P5:P8)</f>
+        <v>5375</v>
       </c>
       <c r="Q9" s="11">
         <f t="shared" si="1"/>
-        <v>2012</v>
+        <v>4343</v>
       </c>
       <c r="R9" s="11">
         <f t="shared" si="1"/>
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="S9" s="11">
         <f t="shared" si="1"/>
-        <v>1783</v>
+        <v>0</v>
       </c>
       <c r="T9" s="11">
         <f t="shared" si="1"/>
-        <v>1282</v>
+        <v>4054</v>
       </c>
       <c r="U9" s="11">
         <f>U3-SUM(U5:U8)</f>
-        <v>1780</v>
+        <v>3877</v>
       </c>
       <c r="V9" s="11">
         <f>V3-SUM(V5:V8)</f>
-        <v>974</v>
+        <v>0</v>
       </c>
       <c r="W9" s="16"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10">
-        <v>-7</v>
-      </c>
-      <c r="G10" s="15">
-        <v>-9</v>
-      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
-      <c r="L10" s="10">
-        <v>-10</v>
-      </c>
-      <c r="M10" s="10">
-        <f>-12-L10</f>
-        <v>-2</v>
-      </c>
-      <c r="N10" s="10">
-        <f>17-M10-L10</f>
-        <v>29</v>
-      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10">
-        <v>-5</v>
+        <v>-26</v>
       </c>
       <c r="Q10" s="10">
-        <f>-7-P10</f>
-        <v>-2</v>
-      </c>
-      <c r="R10" s="10">
-        <f>-6-Q10-P10</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="10">
-        <f>G10-R10-Q10-P10</f>
+        <v>-96</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10">
+        <v>-27</v>
+      </c>
+      <c r="U10">
         <v>-3</v>
-      </c>
-      <c r="T10">
-        <v>50</v>
-      </c>
-      <c r="U10">
-        <f>33-T10</f>
-        <v>-17</v>
-      </c>
-      <c r="V10">
-        <f>-49-U10-T10</f>
-        <v>-82</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="10">
-        <v>415</v>
-      </c>
-      <c r="F11" s="10">
-        <f>461-105-40</f>
-        <v>316</v>
-      </c>
-      <c r="G11" s="15">
-        <f>264-184+19</f>
-        <v>99</v>
-      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
-      <c r="L11" s="10">
-        <v>54</v>
-      </c>
-      <c r="M11" s="10">
-        <f>202-L11</f>
-        <v>148</v>
-      </c>
-      <c r="N11" s="10">
-        <f>249-M11-L11</f>
-        <v>47</v>
-      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10">
-        <v>150</v>
+        <f>147-100</f>
+        <v>47</v>
       </c>
       <c r="Q11" s="10">
-        <f>137-P11</f>
-        <v>-13</v>
-      </c>
-      <c r="R11" s="10">
-        <f>149-Q11-P11</f>
-        <v>12</v>
-      </c>
-      <c r="S11" s="10">
-        <f>G11-R11-Q11-P11</f>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+        <f>166-144</f>
+        <v>22</v>
+      </c>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10">
+        <f>162-151</f>
+        <v>11</v>
+      </c>
+      <c r="U11">
+        <f>165-103</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10">
+        <v>-267</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>-47</v>
+      </c>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10">
+        <v>124</v>
+      </c>
+      <c r="U12">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11">
-        <f t="shared" ref="C12:I12" si="2">C9+SUM(C10:C11)</f>
+      <c r="C13" s="11">
+        <f t="shared" ref="C13:I13" si="2">C9+SUM(C10:C11)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E12" s="11">
-        <f t="shared" si="2"/>
-        <v>5729</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" si="2"/>
-        <v>7081</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" si="2"/>
-        <v>7374</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="E13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="11">
+      <c r="F13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="11">
-        <f t="shared" ref="L12:W12" si="3">L9+SUM(L10:L11)</f>
-        <v>1511</v>
-      </c>
-      <c r="M12" s="11">
-        <f t="shared" si="3"/>
-        <v>2160</v>
-      </c>
-      <c r="N12" s="11">
-        <f t="shared" si="3"/>
-        <v>1645</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="G13" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" ref="L13:S13" si="3">L9+SUM(L10:L12)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P12" s="11">
-        <f t="shared" si="3"/>
-        <v>1985</v>
-      </c>
-      <c r="Q12" s="11">
-        <f t="shared" si="3"/>
-        <v>1997</v>
-      </c>
-      <c r="R12" s="11">
-        <f t="shared" si="3"/>
-        <v>1662</v>
-      </c>
-      <c r="S12" s="11">
-        <f t="shared" si="3"/>
-        <v>1730</v>
-      </c>
-      <c r="T12" s="11">
-        <f t="shared" si="3"/>
-        <v>1332</v>
-      </c>
-      <c r="U12" s="11">
-        <f t="shared" si="3"/>
-        <v>1763</v>
-      </c>
-      <c r="V12" s="11">
-        <f t="shared" si="3"/>
-        <v>892</v>
-      </c>
-      <c r="W12" s="14">
+      <c r="N13" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10">
-        <v>1691</v>
-      </c>
-      <c r="F13" s="10">
-        <v>2114</v>
-      </c>
-      <c r="G13" s="15">
-        <v>2218</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="L13" s="10">
-        <v>500</v>
-      </c>
-      <c r="M13" s="10">
-        <f>1161-L13</f>
-        <v>661</v>
-      </c>
-      <c r="N13" s="10">
-        <f>1615-M13-L13</f>
-        <v>454</v>
-      </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10">
-        <v>578</v>
-      </c>
-      <c r="Q13" s="10">
-        <f>1215-P13</f>
-        <v>637</v>
-      </c>
-      <c r="R13" s="10">
-        <f>1705-Q13-P13</f>
-        <v>490</v>
-      </c>
-      <c r="S13" s="10">
-        <f>G13-R13-Q13-P13</f>
-        <v>513</v>
-      </c>
-      <c r="T13">
-        <v>406</v>
-      </c>
-      <c r="U13">
-        <f>942-T13</f>
-        <v>536</v>
-      </c>
-      <c r="V13">
-        <f>1221-U13-T13</f>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="11">
-        <f>C12-SUM(C13:C13)</f>
+      <c r="O13" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D14" s="11">
-        <f>D12-SUM(D13:D13)</f>
+      <c r="P13" s="11">
+        <f>P9+SUM(P10:P12)</f>
+        <v>5129</v>
+      </c>
+      <c r="Q13" s="11">
+        <f t="shared" si="3"/>
+        <v>4222</v>
+      </c>
+      <c r="R13" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E14" s="11">
-        <f>E12-SUM(E13:E13)</f>
-        <v>4038</v>
-      </c>
-      <c r="F14" s="11">
-        <f>F12-SUM(F13:F13)</f>
-        <v>4967</v>
-      </c>
-      <c r="G14" s="14">
-        <f>G12-SUM(G13:G13)</f>
-        <v>5156</v>
-      </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="L14" s="11">
-        <f t="shared" ref="L14:W14" si="4">L12-SUM(L13:L13)</f>
-        <v>1011</v>
-      </c>
-      <c r="M14" s="11">
-        <f t="shared" si="4"/>
-        <v>1499</v>
-      </c>
-      <c r="N14" s="11">
-        <f t="shared" si="4"/>
-        <v>1191</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="S13" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <f>T9+SUM(T10:T12)</f>
+        <v>4162</v>
+      </c>
+      <c r="U13" s="11">
+        <f t="shared" ref="U13:W13" si="4">U9+SUM(U10:U12)</f>
+        <v>3861</v>
+      </c>
+      <c r="V13" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P14" s="11">
-        <f t="shared" si="4"/>
-        <v>1407</v>
-      </c>
-      <c r="Q14" s="11">
-        <f t="shared" si="4"/>
-        <v>1360</v>
-      </c>
-      <c r="R14" s="11">
-        <f t="shared" si="4"/>
-        <v>1172</v>
-      </c>
-      <c r="S14" s="11">
-        <f t="shared" si="4"/>
-        <v>1217</v>
-      </c>
-      <c r="T14" s="11">
-        <f t="shared" si="4"/>
-        <v>926</v>
-      </c>
-      <c r="U14" s="11">
-        <f t="shared" si="4"/>
-        <v>1227</v>
-      </c>
-      <c r="V14" s="11">
-        <f t="shared" si="4"/>
-        <v>613</v>
-      </c>
-      <c r="W14" s="14">
+      <c r="W13" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10">
+        <v>1467</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>1264</v>
+      </c>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10">
+        <v>1211</v>
+      </c>
+      <c r="U14">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="11">
+        <f>C13-SUM(C14:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <f>D13-SUM(D14:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <f>E13-SUM(E14:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <f>F13-SUM(F14:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <f>G13-SUM(G14:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="L15" s="11">
+        <f t="shared" ref="L15:W15" si="5">L13-SUM(L14:L14)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="5"/>
+        <v>3662</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="5"/>
+        <v>2958</v>
+      </c>
+      <c r="R15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="11">
+        <f t="shared" si="5"/>
+        <v>2951</v>
+      </c>
+      <c r="U15" s="11">
+        <f t="shared" si="5"/>
+        <v>2705</v>
+      </c>
+      <c r="V15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10">
-        <f>E14/E16</f>
-        <v>911.51241534988719</v>
-      </c>
-      <c r="F15" s="10">
-        <f>F14/F16</f>
-        <v>913.05147058823525</v>
-      </c>
-      <c r="G15" s="15">
-        <f>G14/G16</f>
-        <v>910.95406360424022</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="L15" s="10">
-        <f>L14/L16</f>
-        <v>919.09090909090901</v>
-      </c>
-      <c r="M15" s="10">
-        <f>M14/M16</f>
-        <v>914.02439024390242</v>
-      </c>
-      <c r="N15" s="10">
-        <f>N14/N16</f>
-        <v>902.27272727272771</v>
-      </c>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10">
-        <f t="shared" ref="P15:R15" si="5">P14/P16</f>
-        <v>907.74193548387098</v>
-      </c>
-      <c r="Q15" s="10">
-        <f t="shared" si="5"/>
-        <v>918.91891891891908</v>
-      </c>
-      <c r="R15" s="10">
-        <f t="shared" si="5"/>
-        <v>908.52713178294528</v>
-      </c>
-      <c r="S15" s="10">
-        <f>S14/S16</f>
-        <v>908.20895522388082</v>
-      </c>
-      <c r="T15" s="10">
-        <v>909</v>
-      </c>
-      <c r="U15" s="10">
-        <v>909</v>
-      </c>
-      <c r="V15" s="10">
-        <v>909</v>
-      </c>
-      <c r="W15" s="15">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10">
+        <f>E15/E17</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <f>F15/F17</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <f>G15/G17</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10">
+        <f>P15*P17</f>
+        <v>19445.219999999998</v>
+      </c>
+      <c r="Q16" s="10">
+        <f>Q17*Q15</f>
+        <v>12985.619999999999</v>
+      </c>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10">
+        <f>T15*T17</f>
+        <v>13043.42</v>
+      </c>
+      <c r="U16" s="10">
+        <f>U15*U17</f>
+        <v>11225.750000000002</v>
+      </c>
+      <c r="V16" s="10"/>
+      <c r="W16" s="15"/>
+    </row>
+    <row r="17" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2" t="e">
-        <f>C14/C15</f>
+      <c r="C17" s="2" t="e">
+        <f>C15/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D16" s="2" t="e">
-        <f>D14/D15</f>
+      <c r="D17" s="2" t="e">
+        <f>D15/D16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>4.43</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F17" s="2">
         <v>5.44</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G17" s="53">
         <v>5.66</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
-      <c r="L16" s="48">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M16" s="48">
-        <f>2.74-L16</f>
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="N16" s="48">
-        <f>4.06-M16-L16</f>
-        <v>1.3199999999999994</v>
-      </c>
-      <c r="O16" s="48" t="e">
-        <f t="shared" ref="O16" si="6">O14/O15</f>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+      <c r="L17" s="48" t="e">
+        <f t="shared" ref="L17:N17" si="6">L15/L16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P16" s="48">
-        <v>1.55</v>
-      </c>
-      <c r="Q16" s="48">
-        <f>3.03-P16</f>
-        <v>1.4799999999999998</v>
-      </c>
-      <c r="R16" s="48">
-        <f>4.32-Q16-P16</f>
-        <v>1.2900000000000007</v>
-      </c>
-      <c r="S16" s="48">
-        <f>G16-R16-Q16-P16</f>
-        <v>1.3399999999999996</v>
-      </c>
-      <c r="T16" s="48">
-        <f>T14/T15</f>
-        <v>1.0187018701870187</v>
-      </c>
-      <c r="U16" s="48">
-        <f>U14/U15</f>
-        <v>1.3498349834983498</v>
-      </c>
-      <c r="V16" s="48">
-        <f>V14/V15</f>
-        <v>0.67436743674367439</v>
-      </c>
-      <c r="W16" s="47">
-        <f>W14/W15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="42">
+      <c r="M17" s="48" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="48" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="48" t="e">
+        <f t="shared" ref="O17:S17" si="7">O15/O16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="48">
+        <v>5.31</v>
+      </c>
+      <c r="Q17" s="48">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="R17" s="48" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" s="48" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" s="48">
+        <v>4.42</v>
+      </c>
+      <c r="U17" s="48">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="V17" s="48" t="e">
+        <f>V15/V16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W17" s="47" t="e">
+        <f>W15/W16</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="42">
         <v>4.38</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I18" s="43">
         <v>4.71</v>
       </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48">
-        <v>0.94</v>
-      </c>
-      <c r="V17" s="1">
-        <v>1.27</v>
-      </c>
-      <c r="W17" s="16">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="3" t="e">
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="W18" s="16"/>
+    </row>
+    <row r="19" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="e">
         <f>1-C5/C3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="3" t="e">
+      <c r="D19" s="3" t="e">
         <f>1-D5/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3" t="e">
         <f>1-E5/E3</f>
-        <v>0.26727623875912854</v>
-      </c>
-      <c r="F18" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="3" t="e">
         <f>1-F5/F3</f>
-        <v>0.28025613093498414</v>
-      </c>
-      <c r="G18" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="6" t="e">
         <f>1-G5/G3</f>
-        <v>0.28635578583765109</v>
-      </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="L18" s="3">
-        <f t="shared" ref="L18:T18" si="7">1-L5/L3</f>
-        <v>0.2719134651249534</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" si="7"/>
-        <v>0.29021155987448122</v>
-      </c>
-      <c r="N18" s="3">
-        <f t="shared" si="7"/>
-        <v>0.28738106026280019</v>
-      </c>
-      <c r="O18" s="3" t="e">
-        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P18" s="3">
-        <f t="shared" si="7"/>
-        <v>0.27899376052292757</v>
-      </c>
-      <c r="Q18" s="3">
-        <f t="shared" si="7"/>
-        <v>0.29920650280627059</v>
-      </c>
-      <c r="R18" s="3">
-        <f t="shared" si="7"/>
-        <v>0.27626017936295222</v>
-      </c>
-      <c r="S18" s="38">
-        <f t="shared" si="7"/>
-        <v>0.29015195229851898</v>
-      </c>
-      <c r="T18" s="38">
-        <f t="shared" si="7"/>
-        <v>0.25713017423149487</v>
-      </c>
-      <c r="U18" s="38">
-        <f t="shared" ref="U18:V18" si="8">1-U5/U3</f>
-        <v>0.27656519241815047</v>
-      </c>
-      <c r="V18" s="38">
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="L19" s="3" t="e">
+        <f t="shared" ref="L19:T19" si="8">1-L5/L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="3" t="e">
         <f t="shared" si="8"/>
-        <v>0.22828593389700236</v>
-      </c>
-      <c r="W18" s="6" t="e">
-        <f t="shared" ref="W18" si="9">1-W5/W3</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4" t="e">
-        <f>C14/C3</f>
+      <c r="N19" s="3" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D19" s="4" t="e">
-        <f>D14/D3</f>
+      <c r="O19" s="3" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="4">
-        <f>E14/E3</f>
-        <v>0.12185406481984429</v>
-      </c>
-      <c r="F19" s="4">
-        <f>F14/F3</f>
-        <v>0.13197119855461381</v>
-      </c>
-      <c r="G19" s="7">
-        <f>G14/G3</f>
-        <v>0.12721440907969406</v>
-      </c>
-      <c r="H19" s="45">
-        <f>H14/H4</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="45">
-        <f>I14/I4</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" ref="L19:T19" si="10">L14/L3</f>
-        <v>0.12569936590824318</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" si="10"/>
-        <v>0.15173600566858994</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="10"/>
-        <v>0.13491164476665157</v>
-      </c>
-      <c r="O19" s="4" t="e">
-        <f t="shared" si="10"/>
+      <c r="P19" s="3">
+        <f>1-P5/P3</f>
+        <v>0.21089192196022033</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="8"/>
+        <v>0.1915688223756683</v>
+      </c>
+      <c r="R19" s="3" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P19" s="4">
-        <f t="shared" si="10"/>
-        <v>0.13934832128354957</v>
-      </c>
-      <c r="Q19" s="4">
-        <f t="shared" si="10"/>
-        <v>0.13160441261854075</v>
-      </c>
-      <c r="R19" s="4">
-        <f t="shared" si="10"/>
-        <v>0.12081228739305226</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="shared" si="10"/>
-        <v>0.11704173879592229</v>
-      </c>
-      <c r="T19" s="4">
-        <f t="shared" si="10"/>
-        <v>0.10276328931306182</v>
-      </c>
-      <c r="U19" s="4">
-        <f t="shared" ref="U19:V19" si="11">U14/U3</f>
-        <v>0.11746122917863297</v>
-      </c>
-      <c r="V19" s="4">
-        <f t="shared" si="11"/>
-        <v>6.7310859778192594E-2</v>
-      </c>
-      <c r="W19" s="7" t="e">
-        <f t="shared" ref="W19" si="12">W14/W3</f>
+      <c r="S19" s="38" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" s="38">
+        <f t="shared" si="8"/>
+        <v>0.17927568689572293</v>
+      </c>
+      <c r="U19" s="38">
+        <f t="shared" ref="U19:V19" si="9">1-U5/U3</f>
+        <v>0.18024577739281078</v>
+      </c>
+      <c r="V19" s="38" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W19" s="6" t="e">
+        <f t="shared" ref="W19" si="10">1-W5/W3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4">
-        <f>E13/E12</f>
-        <v>0.29516495025309825</v>
-      </c>
-      <c r="F20" s="4">
-        <f>F13/F12</f>
-        <v>0.29854540319163958</v>
-      </c>
-      <c r="G20" s="7">
-        <f>G13/G12</f>
-        <v>0.30078654732845134</v>
-      </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="L20" s="4">
-        <f t="shared" ref="L20:S20" si="13">L13/L12</f>
-        <v>0.33090668431502318</v>
-      </c>
-      <c r="M20" s="4">
-        <f t="shared" si="13"/>
-        <v>0.30601851851851852</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="13"/>
-        <v>0.27598784194528875</v>
+        <v>25</v>
+      </c>
+      <c r="C20" s="4" t="e">
+        <f>C15/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="4" t="e">
+        <f>D15/D3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="4" t="e">
+        <f>E15/E3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="4" t="e">
+        <f>F15/F3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="7" t="e">
+        <f>G15/G3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="45">
+        <f>H15/H4</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="45">
+        <f>I15/I4</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="4" t="e">
+        <f t="shared" ref="L20:T20" si="11">L15/L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O20" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="13"/>
-        <v>0.29118387909319898</v>
+        <f t="shared" si="11"/>
+        <v>9.9367758391447097E-2</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="13"/>
-        <v>0.3189784677015523</v>
-      </c>
-      <c r="R20" s="4">
-        <f t="shared" si="13"/>
-        <v>0.29482551143200963</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" si="13"/>
-        <v>0.29653179190751444</v>
+        <f t="shared" si="11"/>
+        <v>7.9475536688250623E-2</v>
+      </c>
+      <c r="R20" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S20" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="T20" s="4">
-        <f>T13/T12</f>
-        <v>0.30480480480480482</v>
+        <f t="shared" si="11"/>
+        <v>8.0597585622985746E-2</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" ref="U20:V20" si="14">U13/U12</f>
-        <v>0.30402722631877482</v>
-      </c>
-      <c r="V20" s="4">
-        <f t="shared" si="14"/>
-        <v>0.31278026905829598</v>
+        <f t="shared" ref="U20:V20" si="12">U15/U3</f>
+        <v>7.3218925941966218E-2</v>
+      </c>
+      <c r="V20" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="W20" s="7" t="e">
-        <f t="shared" ref="W20" si="15">W13/W12</f>
+        <f t="shared" ref="W20" si="13">W15/W3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="e">
+        <v>136</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="e">
+        <f>E14/E13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="4" t="e">
+        <f>F14/F13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="7" t="e">
+        <f>G14/G13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="L21" s="4" t="e">
+        <f t="shared" ref="L21:S21" si="14">L14/L13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="14"/>
+        <v>0.28602066679664651</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="14"/>
+        <v>0.29938417811463763</v>
+      </c>
+      <c r="R21" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S21" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" s="4">
+        <f>T14/T13</f>
+        <v>0.29096588178760213</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" ref="U21:V21" si="15">U14/U13</f>
+        <v>0.29940429940429941</v>
+      </c>
+      <c r="V21" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W21" s="7" t="e">
+        <f t="shared" ref="W21" si="16">W14/W13</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="e">
         <f>D3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="3" t="e">
+      <c r="E22" s="3" t="e">
         <f>E3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F22" s="38" t="e">
         <f>F3/E3-1</f>
-        <v>0.13576558633592861</v>
-      </c>
-      <c r="G21" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="6" t="e">
         <f>G3/F3-1</f>
-        <v>7.6865850094322008E-2</v>
-      </c>
-      <c r="H21" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="46" t="e">
         <f>H4/G3-1</f>
-        <v>-2.7633851468048309E-2</v>
-      </c>
-      <c r="I21" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="46">
         <f>I4/H4-1</f>
         <v>2.359807155544269E-2</v>
       </c>
-      <c r="L21" s="4" t="e">
+      <c r="L22" s="4" t="e">
         <f>L3/#REF!-1</f>
         <v>#REF!</v>
       </c>
-      <c r="M21" s="4" t="e">
+      <c r="M22" s="4" t="e">
         <f>M3/#REF!-1</f>
         <v>#REF!</v>
       </c>
-      <c r="N21" s="4" t="e">
+      <c r="N22" s="4" t="e">
         <f>N3/#REF!-1</f>
         <v>#REF!</v>
       </c>
-      <c r="O21" s="4" t="e">
+      <c r="O22" s="4" t="e">
         <f>O3/#REF!-1</f>
         <v>#REF!</v>
       </c>
-      <c r="P21" s="4">
-        <f t="shared" ref="P21:T21" si="16">P3/L3-1</f>
-        <v>0.25537734676115886</v>
-      </c>
-      <c r="Q21" s="4">
-        <f t="shared" si="16"/>
-        <v>4.6057293248304543E-2</v>
-      </c>
-      <c r="R21" s="4">
-        <f t="shared" si="16"/>
-        <v>9.8889895786135051E-2</v>
-      </c>
-      <c r="S21" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="P22" s="4" t="e">
+        <f t="shared" ref="P22:T22" si="17">P3/L3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T21" s="128">
-        <f t="shared" si="16"/>
-        <v>-0.10755670000990392</v>
-      </c>
-      <c r="U21" s="128">
-        <f t="shared" ref="U21" si="17">U3/Q3-1</f>
-        <v>1.0838010450938684E-2</v>
-      </c>
-      <c r="V21" s="4">
-        <f t="shared" ref="V21:W21" si="18">V3/R3-1</f>
-        <v>-6.1230800948355868E-2</v>
-      </c>
-      <c r="W21" s="7">
-        <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="4" t="e">
+      <c r="Q22" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="128">
+        <f t="shared" si="17"/>
+        <v>-6.4852250834396274E-3</v>
+      </c>
+      <c r="U22" s="128">
+        <f t="shared" ref="U22" si="18">U3/Q3-1</f>
+        <v>-7.3886993202396667E-3</v>
+      </c>
+      <c r="V22" s="4" t="e">
+        <f t="shared" ref="V22:W22" si="19">V3/R3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="4" t="e">
         <f>C6/C3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D22" s="4" t="e">
+      <c r="D23" s="4" t="e">
         <f>D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4" t="e">
         <f>E6/E3</f>
-        <v>6.3703301345886892E-2</v>
-      </c>
-      <c r="F22" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="4" t="e">
         <f>F6/F3</f>
-        <v>6.2518266599357011E-2</v>
-      </c>
-      <c r="G22" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="7" t="e">
         <f>G6/G3</f>
-        <v>7.078707130520602E-2</v>
-      </c>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="L22" s="4">
-        <f t="shared" ref="L22:T22" si="19">L6/L3</f>
-        <v>5.2840979733930128E-2</v>
-      </c>
-      <c r="M22" s="4">
-        <f t="shared" si="19"/>
-        <v>5.3750379593076221E-2</v>
-      </c>
-      <c r="N22" s="4">
-        <f t="shared" si="19"/>
-        <v>6.196193928409606E-2</v>
-      </c>
-      <c r="O22" s="4" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P22" s="4">
-        <f t="shared" si="19"/>
-        <v>5.1599484995543232E-2</v>
-      </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="19"/>
-        <v>7.4704857751112838E-2</v>
-      </c>
-      <c r="R22" s="4">
-        <f t="shared" si="19"/>
-        <v>7.3909906195237601E-2</v>
-      </c>
-      <c r="S22" s="4">
-        <f t="shared" si="19"/>
-        <v>8.2612040777072515E-2</v>
-      </c>
-      <c r="T22" s="4">
-        <f t="shared" si="19"/>
-        <v>7.2910886694040611E-2</v>
-      </c>
-      <c r="U22" s="4">
-        <f t="shared" ref="U22:V22" si="20">U6/U3</f>
-        <v>6.9117365498755509E-2</v>
-      </c>
-      <c r="V22" s="4">
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="L23" s="4" t="e">
+        <f t="shared" ref="L23:T23" si="20">L6/L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="4" t="e">
         <f t="shared" si="20"/>
-        <v>8.4440540243768528E-2</v>
-      </c>
-      <c r="W22" s="7" t="e">
-        <f t="shared" ref="W22" si="21">W6/W3</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="4" t="e">
+      <c r="N23" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="20"/>
+        <v>6.401107101185792E-2</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="20"/>
+        <v>7.066283349901932E-2</v>
+      </c>
+      <c r="R23" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S23" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="20"/>
+        <v>6.8689572294750645E-2</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" ref="U23:V23" si="21">U6/U3</f>
+        <v>7.5032481593763536E-2</v>
+      </c>
+      <c r="V23" s="4" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W23" s="7" t="e">
+        <f t="shared" ref="W23" si="22">W6/W3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="4" t="e">
         <f>C7/C3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="4" t="e">
+      <c r="D24" s="4" t="e">
         <f>D7/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4" t="e">
         <f>E7/E3</f>
-        <v>4.3032168507453679E-2</v>
-      </c>
-      <c r="F23" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="4" t="e">
         <f>F7/F3</f>
-        <v>4.3972686452161437E-2</v>
-      </c>
-      <c r="G23" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="7" t="e">
         <f>G7/G3</f>
-        <v>4.4090796940537871E-2</v>
-      </c>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="L23" s="4">
-        <f t="shared" ref="L23:T23" si="22">L7/L3</f>
-        <v>4.7743379336068634E-2</v>
-      </c>
-      <c r="M23" s="4">
-        <f t="shared" si="22"/>
-        <v>3.8667881364510576E-2</v>
-      </c>
-      <c r="N23" s="4">
-        <f t="shared" si="22"/>
-        <v>4.6669687358405078E-2</v>
-      </c>
-      <c r="O23" s="4" t="e">
-        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P23" s="4">
-        <f t="shared" si="22"/>
-        <v>5.0411013172229374E-2</v>
-      </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="22"/>
-        <v>3.5417069866460225E-2</v>
-      </c>
-      <c r="R23" s="4">
-        <f t="shared" si="22"/>
-        <v>5.1953406865271619E-2</v>
-      </c>
-      <c r="S23" s="4">
-        <f t="shared" si="22"/>
-        <v>3.9238315060588572E-2</v>
-      </c>
-      <c r="T23" s="4">
-        <f t="shared" si="22"/>
-        <v>5.1270669182110755E-2</v>
-      </c>
-      <c r="U23" s="4">
-        <f t="shared" ref="U23:V23" si="23">U7/U3</f>
-        <v>4.6907907332950409E-2</v>
-      </c>
-      <c r="V23" s="4">
-        <f t="shared" si="23"/>
-        <v>4.5679147908202482E-2</v>
-      </c>
-      <c r="W23" s="7" t="e">
-        <f t="shared" ref="W23" si="24">W7/W3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="7"/>
       <c r="H24" s="119"/>
       <c r="I24" s="119"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="7"/>
+      <c r="L24" s="4" t="e">
+        <f t="shared" ref="L24:T24" si="23">L7/L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="4" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="4" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="4" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="23"/>
+        <v>-5.019944102244051E-3</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="23"/>
+        <v>-6.2065074290013162E-3</v>
+      </c>
+      <c r="R24" s="4" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24" s="4" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="23"/>
+        <v>-7.7565958376577268E-3</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" ref="U24:V24" si="24">U7/U3</f>
+        <v>-7.3895625812039848E-3</v>
+      </c>
+      <c r="V24" s="4" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" s="7" t="e">
+        <f t="shared" ref="W24" si="25">W7/W3</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="e">
-        <f>-(D14/C14-1)</f>
+        <v>124</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="7"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="e">
+        <f>-(D15/C15-1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="3" t="e">
-        <f>-(E14/D14-1)</f>
+      <c r="E26" s="3" t="e">
+        <f>-(E15/D15-1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="38">
-        <f>F14/E14-1</f>
-        <v>0.23006438831104514</v>
-      </c>
-      <c r="G25" s="6">
-        <f>G14/F14-1</f>
-        <v>3.8051137507549848E-2</v>
-      </c>
-      <c r="H25" s="56">
-        <f>H17/G16-1</f>
+      <c r="F26" s="38" t="e">
+        <f>F15/E15-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="6" t="e">
+        <f>G15/F15-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="56">
+        <f>H18/G17-1</f>
         <v>-0.22614840989399299</v>
       </c>
-      <c r="I25" s="56">
-        <f>I17/H17-1</f>
+      <c r="I26" s="56">
+        <f>I18/H18-1</f>
         <v>7.5342465753424737E-2</v>
       </c>
-      <c r="L25" s="4" t="e">
-        <f>L14/#REF!-1</f>
+      <c r="L26" s="4" t="e">
+        <f>L15/#REF!-1</f>
         <v>#REF!</v>
       </c>
-      <c r="M25" s="4" t="e">
-        <f>M14/#REF!-1</f>
+      <c r="M26" s="4" t="e">
+        <f>M15/#REF!-1</f>
         <v>#REF!</v>
       </c>
-      <c r="N25" s="4" t="e">
-        <f>N14/#REF!-1</f>
+      <c r="N26" s="4" t="e">
+        <f>N15/#REF!-1</f>
         <v>#REF!</v>
       </c>
-      <c r="O25" s="4" t="e">
-        <f>O14/#REF!-1</f>
+      <c r="O26" s="4" t="e">
+        <f>O15/#REF!-1</f>
         <v>#REF!</v>
       </c>
-      <c r="P25" s="4">
-        <f t="shared" ref="P25:T25" si="25">P14/L14-1</f>
-        <v>0.39169139465875369</v>
-      </c>
-      <c r="Q25" s="4">
-        <f t="shared" si="25"/>
-        <v>-9.2728485657104787E-2</v>
-      </c>
-      <c r="R25" s="4">
-        <f t="shared" si="25"/>
-        <v>-1.5952980688497043E-2</v>
-      </c>
-      <c r="S25" s="4" t="e">
-        <f t="shared" si="25"/>
+      <c r="P26" s="4" t="e">
+        <f t="shared" ref="P26:T26" si="26">P15/L15-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T25" s="128">
-        <f t="shared" si="25"/>
-        <v>-0.341862117981521</v>
-      </c>
-      <c r="U25" s="128">
-        <f t="shared" ref="U25" si="26">U14/Q14-1</f>
-        <v>-9.7794117647058809E-2</v>
-      </c>
-      <c r="V25" s="4">
-        <f t="shared" ref="V25:W25" si="27">V14/R14-1</f>
-        <v>-0.476962457337884</v>
-      </c>
-      <c r="W25" s="7">
-        <f t="shared" si="27"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="11">
-        <f t="shared" ref="C29:I29" si="28">C35+C34-C44-C50</f>
+      <c r="Q26" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="4" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="128">
+        <f t="shared" si="26"/>
+        <v>-0.19415619879847079</v>
+      </c>
+      <c r="U26" s="128">
+        <f t="shared" ref="U26" si="27">U15/Q15-1</f>
+        <v>-8.5530764029749795E-2</v>
+      </c>
+      <c r="V26" s="4" t="e">
+        <f t="shared" ref="V26:W26" si="28">V15/R15-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" s="7" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="11">
+        <f>C36+C35-C47-C54</f>
         <v>0</v>
       </c>
-      <c r="D29" s="11">
-        <f t="shared" si="28"/>
+      <c r="D30" s="11">
+        <f>D36+D35-D47-D54</f>
         <v>0</v>
       </c>
-      <c r="E29" s="11">
-        <f t="shared" si="28"/>
-        <v>-4059</v>
-      </c>
-      <c r="F29" s="11">
-        <f>F35+F34-F44-F50</f>
-        <v>-4712</v>
-      </c>
-      <c r="G29" s="14">
-        <f t="shared" si="28"/>
-        <v>-2771</v>
-      </c>
-      <c r="H29" s="11">
-        <f t="shared" si="28"/>
+      <c r="E30" s="11">
+        <f>E36+E35-E47-E54</f>
         <v>0</v>
       </c>
-      <c r="I29" s="11">
-        <f t="shared" si="28"/>
+      <c r="F30" s="11">
+        <f>F36+F35-F47-F54</f>
         <v>0</v>
       </c>
-      <c r="L29" s="11">
-        <f t="shared" ref="L29:N29" si="29">L35+L34-L44-L45</f>
+      <c r="G30" s="14">
+        <f>G36+G35-G47-G54</f>
+        <v>14282</v>
+      </c>
+      <c r="H30" s="11">
+        <f>H36+H35-H47-H54</f>
         <v>0</v>
       </c>
-      <c r="M29" s="11">
-        <f t="shared" si="29"/>
+      <c r="I30" s="11">
+        <f>I36+I35-I47-I54</f>
         <v>0</v>
       </c>
-      <c r="N29" s="11">
-        <f t="shared" si="29"/>
+      <c r="L30" s="11">
+        <f>L36+L35-L47-L48</f>
         <v>0</v>
       </c>
-      <c r="O29" s="11">
-        <f t="shared" ref="O29:R29" si="30">O35+O34-O44-O50</f>
-        <v>-4712</v>
-      </c>
-      <c r="P29" s="11">
-        <f t="shared" si="30"/>
-        <v>-5298</v>
-      </c>
-      <c r="Q29" s="11">
-        <f t="shared" si="30"/>
-        <v>-6177</v>
-      </c>
-      <c r="R29" s="11">
-        <f t="shared" si="30"/>
-        <v>-6573</v>
-      </c>
-      <c r="S29" s="11">
-        <f>S35+S34-S44-S50</f>
-        <v>-2771</v>
-      </c>
-      <c r="T29" s="11">
-        <f t="shared" ref="T29:X29" si="31">T35+T34-T44-T50</f>
-        <v>-2671</v>
-      </c>
-      <c r="U29" s="11">
-        <f t="shared" si="31"/>
-        <v>-4112</v>
-      </c>
-      <c r="V29" s="11">
-        <f t="shared" si="31"/>
-        <v>-4004</v>
-      </c>
-      <c r="W29" s="14">
-        <f t="shared" si="31"/>
+      <c r="M30" s="11">
+        <f>M36+M35-M47-M48</f>
         <v>0</v>
       </c>
-      <c r="X29" s="11">
-        <f t="shared" si="31"/>
+      <c r="N30" s="11">
+        <f>N36+N35-N47-N48</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10">
-        <v>4517</v>
-      </c>
-      <c r="F30" s="10">
-        <v>5504</v>
-      </c>
-      <c r="G30" s="15">
-        <v>5947</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10">
-        <f t="shared" ref="O30:O36" si="32">F30</f>
-        <v>5504</v>
-      </c>
-      <c r="P30" s="10">
-        <v>6213</v>
-      </c>
-      <c r="Q30" s="10">
-        <v>6501</v>
-      </c>
-      <c r="R30" s="10">
-        <v>6108</v>
-      </c>
-      <c r="S30" s="10">
-        <f t="shared" ref="S30:S36" si="33">G30</f>
-        <v>5947</v>
-      </c>
-      <c r="T30" s="10">
-        <v>6531</v>
-      </c>
-      <c r="U30" s="10">
-        <v>6791</v>
-      </c>
-      <c r="V30" s="10">
-        <v>6887</v>
+      <c r="O30" s="11">
+        <f>O36+O35-O47-O54</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="11">
+        <f>P36+P35-P47-P54</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="11">
+        <f>Q36+Q35-Q47-Q54</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="11">
+        <f>R36+R35-R47-R54</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="11">
+        <f>S36+S35-S47-S54</f>
+        <v>14282</v>
+      </c>
+      <c r="T30" s="11">
+        <f>T36+T35-T47-T54</f>
+        <v>6691</v>
+      </c>
+      <c r="U30" s="11">
+        <f>U36+U35-U47-U54</f>
+        <v>7813</v>
+      </c>
+      <c r="V30" s="11">
+        <f>V36+V35-V47-V54</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14">
+        <f>W36+W35-W47-W54</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="11">
+        <f>X36+X35-X47-X54</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="10">
-        <v>1081</v>
-      </c>
-      <c r="F31" s="10">
-        <v>1538</v>
-      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="15">
-        <v>1669</v>
+        <v>23719</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="10">
-        <f t="shared" si="32"/>
-        <v>1538</v>
-      </c>
-      <c r="P31" s="10">
-        <v>1518</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>1551</v>
-      </c>
-      <c r="R31" s="10">
-        <v>1608</v>
-      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
       <c r="S31" s="10">
-        <f t="shared" si="33"/>
-        <v>1669</v>
-      </c>
-      <c r="T31" s="10">
-        <v>1678</v>
+        <f>G31</f>
+        <v>23719</v>
+      </c>
+      <c r="T31" s="155">
+        <v>26148</v>
       </c>
       <c r="U31" s="10">
-        <v>1701</v>
-      </c>
-      <c r="V31" s="10">
-        <v>1704</v>
-      </c>
+        <v>26851</v>
+      </c>
+      <c r="V31" s="10"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="10">
-        <v>7131</v>
-      </c>
-      <c r="F32" s="10">
-        <v>7480</v>
-      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="15">
-        <v>4537</v>
+        <v>4162</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
-      <c r="O32" s="10">
-        <f t="shared" si="32"/>
-        <v>7480</v>
-      </c>
-      <c r="P32" s="10">
-        <v>6157</v>
-      </c>
-      <c r="Q32" s="10">
-        <v>8206</v>
-      </c>
-      <c r="R32" s="10">
-        <v>8192</v>
-      </c>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
       <c r="S32" s="10">
-        <f t="shared" si="33"/>
-        <v>4537</v>
+        <f t="shared" ref="S32:S57" si="29">G32</f>
+        <v>4162</v>
       </c>
       <c r="T32" s="10">
-        <v>4168</v>
+        <v>4526</v>
       </c>
       <c r="U32" s="10">
-        <v>4344</v>
-      </c>
-      <c r="V32" s="10">
-        <v>4408</v>
-      </c>
+        <v>3930</v>
+      </c>
+      <c r="V32" s="10"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="10">
-        <v>155</v>
-      </c>
-      <c r="F33" s="10">
-        <v>87</v>
-      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="15">
-        <v>235</v>
+        <f>36838+4131</f>
+        <v>40969</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
-      <c r="O33" s="10">
-        <f t="shared" si="32"/>
-        <v>87</v>
-      </c>
-      <c r="P33" s="10">
-        <v>72</v>
-      </c>
-      <c r="Q33" s="10">
-        <v>116</v>
-      </c>
-      <c r="R33" s="10">
-        <v>122</v>
-      </c>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
       <c r="S33" s="10">
-        <f t="shared" si="33"/>
-        <v>235</v>
+        <f t="shared" si="29"/>
+        <v>40969</v>
       </c>
       <c r="T33" s="10">
-        <v>350</v>
+        <f>36443+4324</f>
+        <v>40767</v>
       </c>
       <c r="U33" s="10">
-        <v>292</v>
-      </c>
-      <c r="V33" s="10">
-        <v>337</v>
-      </c>
+        <f>37516+3339</f>
+        <v>40855</v>
+      </c>
+      <c r="V33" s="10"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="10">
-        <v>982</v>
-      </c>
-      <c r="F34" s="10">
-        <v>1795</v>
-      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="15">
-        <v>1826</v>
+        <v>1199</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="10">
-        <f t="shared" si="32"/>
-        <v>1795</v>
-      </c>
-      <c r="P34" s="10">
-        <v>1987</v>
-      </c>
-      <c r="Q34" s="10">
-        <v>1788</v>
-      </c>
-      <c r="R34" s="10">
-        <v>1777</v>
-      </c>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
       <c r="S34" s="10">
-        <f t="shared" si="33"/>
-        <v>1826</v>
+        <f t="shared" si="29"/>
+        <v>1199</v>
       </c>
       <c r="T34" s="10">
-        <v>1682</v>
+        <v>1117</v>
       </c>
       <c r="U34" s="10">
-        <v>1895</v>
-      </c>
-      <c r="V34" s="10">
-        <v>1905</v>
-      </c>
+        <v>1315</v>
+      </c>
+      <c r="V34" s="10"/>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10">
-        <v>4686</v>
-      </c>
-      <c r="F35" s="10">
-        <v>3719</v>
-      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="15">
-        <v>5820</v>
+        <v>7596</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="10">
-        <f t="shared" si="32"/>
-        <v>3719</v>
-      </c>
-      <c r="P35" s="10">
-        <v>2097</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>1646</v>
-      </c>
-      <c r="R35" s="10">
-        <v>2093</v>
-      </c>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
       <c r="S35" s="10">
-        <f t="shared" si="33"/>
-        <v>5820</v>
+        <f t="shared" si="29"/>
+        <v>7596</v>
       </c>
       <c r="T35" s="10">
-        <v>6164</v>
+        <v>7426</v>
       </c>
       <c r="U35" s="10">
-        <v>4590</v>
-      </c>
-      <c r="V35" s="10">
-        <v>4547</v>
-      </c>
+        <v>7474</v>
+      </c>
+      <c r="V35" s="10"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="10">
-        <v>31</v>
-      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="15">
-        <v>6</v>
+        <v>17327</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
-      <c r="O36" s="10">
-        <f t="shared" si="32"/>
-        <v>31</v>
-      </c>
-      <c r="P36" s="10">
-        <v>25</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>17</v>
-      </c>
-      <c r="R36" s="10">
-        <v>13</v>
-      </c>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
       <c r="S36" s="10">
-        <f t="shared" si="33"/>
-        <v>6</v>
+        <f t="shared" si="29"/>
+        <v>17327</v>
       </c>
       <c r="T36" s="10">
-        <v>6</v>
+        <v>16773</v>
       </c>
       <c r="U36" s="10">
-        <v>6</v>
-      </c>
-      <c r="V36" s="10">
-        <v>6</v>
-      </c>
+        <v>17856</v>
+      </c>
+      <c r="V36" s="10"/>
     </row>
     <row r="37" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="11">
-        <f t="shared" ref="C37:D37" si="34">SUM(C30:C36)</f>
+        <f>SUM(C31:C36)</f>
         <v>0</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="34"/>
+        <f>SUM(D31:D36)</f>
         <v>0</v>
       </c>
       <c r="E37" s="11">
-        <f>SUM(E30:E36)</f>
-        <v>18552</v>
+        <f>SUM(E31:E36)</f>
+        <v>0</v>
       </c>
       <c r="F37" s="11">
-        <f t="shared" ref="F37:G37" si="35">SUM(F30:F36)</f>
-        <v>20154</v>
+        <f>SUM(F31:F36)</f>
+        <v>0</v>
       </c>
       <c r="G37" s="14">
-        <f t="shared" si="35"/>
-        <v>20040</v>
+        <f>SUM(G31:G36)</f>
+        <v>94972</v>
       </c>
       <c r="L37" s="11">
-        <f t="shared" ref="L37:X37" si="36">SUM(L30:L36)</f>
+        <f>SUM(L31:L36)</f>
         <v>0</v>
       </c>
       <c r="M37" s="11">
-        <f t="shared" si="36"/>
+        <f>SUM(M31:M36)</f>
         <v>0</v>
       </c>
       <c r="N37" s="11">
-        <f t="shared" si="36"/>
+        <f>SUM(N31:N36)</f>
         <v>0</v>
       </c>
       <c r="O37" s="11">
-        <f t="shared" si="36"/>
-        <v>20154</v>
+        <f>SUM(O31:O36)</f>
+        <v>0</v>
       </c>
       <c r="P37" s="11">
-        <f t="shared" si="36"/>
-        <v>18069</v>
+        <f>SUM(P31:P36)</f>
+        <v>0</v>
       </c>
       <c r="Q37" s="11">
-        <f t="shared" si="36"/>
-        <v>19825</v>
+        <f>SUM(Q31:Q36)</f>
+        <v>0</v>
       </c>
       <c r="R37" s="11">
-        <f t="shared" si="36"/>
-        <v>19913</v>
+        <f>SUM(R31:R36)</f>
+        <v>0</v>
       </c>
       <c r="S37" s="11">
-        <f t="shared" si="36"/>
-        <v>20040</v>
+        <f>SUM(S31:S36)</f>
+        <v>94972</v>
       </c>
       <c r="T37" s="11">
-        <f t="shared" si="36"/>
-        <v>20579</v>
+        <f>SUM(T31:T36)</f>
+        <v>96757</v>
       </c>
       <c r="U37" s="11">
-        <f t="shared" si="36"/>
-        <v>19619</v>
+        <f>SUM(U31:U36)</f>
+        <v>98281</v>
       </c>
       <c r="V37" s="11">
-        <f t="shared" si="36"/>
-        <v>19794</v>
+        <f>SUM(V31:V36)</f>
+        <v>0</v>
       </c>
       <c r="W37" s="14">
-        <f t="shared" si="36"/>
+        <f>SUM(W31:W36)</f>
         <v>0</v>
       </c>
       <c r="X37" s="11">
-        <f t="shared" si="36"/>
+        <f>SUM(X31:X36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="10">
-        <v>6190</v>
-      </c>
-      <c r="F38" s="10">
-        <v>7473</v>
-      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="15">
-        <v>8554</v>
+        <v>20022</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
-      <c r="O38" s="10">
-        <f t="shared" ref="O38:O42" si="37">F38</f>
-        <v>7473</v>
-      </c>
-      <c r="P38" s="10">
-        <v>7790</v>
-      </c>
-      <c r="Q38" s="10">
-        <v>8188</v>
-      </c>
-      <c r="R38" s="10">
-        <v>8359</v>
-      </c>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
       <c r="S38" s="10">
-        <f t="shared" ref="S38:S42" si="38">G38</f>
-        <v>8554</v>
+        <f t="shared" si="29"/>
+        <v>20022</v>
       </c>
       <c r="T38" s="10">
-        <v>9041</v>
+        <v>19664</v>
       </c>
       <c r="U38" s="10">
-        <v>9110</v>
-      </c>
-      <c r="V38" s="10">
-        <v>9178</v>
-      </c>
+        <v>19549</v>
+      </c>
+      <c r="V38" s="10"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="10">
-        <v>8763</v>
-      </c>
-      <c r="F39" s="10">
-        <v>8924</v>
-      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="15">
-        <v>9394</v>
+        <v>35266</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
-      <c r="O39" s="10">
-        <f t="shared" si="37"/>
-        <v>8924</v>
-      </c>
-      <c r="P39" s="10">
-        <v>8894</v>
-      </c>
-      <c r="Q39" s="10">
-        <v>9118</v>
-      </c>
-      <c r="R39" s="10">
-        <v>9179</v>
-      </c>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
       <c r="S39" s="10">
-        <f t="shared" si="38"/>
-        <v>9394</v>
+        <f t="shared" si="29"/>
+        <v>35266</v>
       </c>
       <c r="T39" s="10">
-        <v>9454</v>
+        <v>35443</v>
       </c>
       <c r="U39" s="10">
-        <v>9570</v>
-      </c>
-      <c r="V39" s="10">
-        <v>9793</v>
-      </c>
+        <v>36338</v>
+      </c>
+      <c r="V39" s="10"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="10">
-        <v>3954</v>
-      </c>
-      <c r="F40" s="10">
-        <v>3854</v>
-      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="15">
-        <v>4190</v>
+        <v>43118</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
-      <c r="O40" s="10">
-        <f t="shared" si="37"/>
-        <v>3854</v>
-      </c>
-      <c r="P40" s="10">
-        <v>3885</v>
-      </c>
-      <c r="Q40" s="10">
-        <v>4031</v>
-      </c>
-      <c r="R40" s="10">
-        <v>4253</v>
-      </c>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
       <c r="S40" s="10">
-        <f t="shared" si="38"/>
-        <v>4190</v>
+        <f t="shared" si="29"/>
+        <v>43118</v>
       </c>
       <c r="T40" s="10">
-        <v>4260</v>
+        <v>43743</v>
       </c>
       <c r="U40" s="10">
-        <v>4491</v>
-      </c>
-      <c r="V40" s="10">
-        <v>4650</v>
-      </c>
+        <v>44957</v>
+      </c>
+      <c r="V40" s="10"/>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="10">
-        <v>3461</v>
-      </c>
-      <c r="F41" s="10">
-        <v>4382</v>
-      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="15">
-        <v>4676</v>
+        <v>443</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
-      <c r="O41" s="10">
-        <f t="shared" si="37"/>
-        <v>4382</v>
-      </c>
-      <c r="P41" s="10">
-        <v>4421</v>
-      </c>
-      <c r="Q41" s="10">
-        <v>4489</v>
-      </c>
-      <c r="R41" s="10">
-        <v>4701</v>
-      </c>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
       <c r="S41" s="10">
-        <f t="shared" si="38"/>
-        <v>4676</v>
+        <f t="shared" si="29"/>
+        <v>443</v>
       </c>
       <c r="T41" s="10">
-        <v>4728</v>
+        <v>423</v>
       </c>
       <c r="U41" s="10">
-        <v>4744</v>
-      </c>
-      <c r="V41" s="10">
-        <v>4755</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="V41" s="10"/>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
-      <c r="E42" s="10">
-        <v>10462</v>
-      </c>
-      <c r="F42" s="10">
-        <v>2855</v>
-      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="15">
-        <v>3592</v>
+        <v>1197</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
-      <c r="O42" s="10">
-        <f t="shared" si="37"/>
-        <v>2855</v>
-      </c>
-      <c r="P42" s="10">
-        <v>3031</v>
-      </c>
-      <c r="Q42" s="10">
-        <v>3474</v>
-      </c>
-      <c r="R42" s="10">
-        <v>3412</v>
-      </c>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
       <c r="S42" s="10">
-        <f t="shared" si="38"/>
-        <v>3592</v>
+        <f t="shared" si="29"/>
+        <v>1197</v>
       </c>
       <c r="T42" s="10">
-        <v>3901</v>
+        <v>1240</v>
       </c>
       <c r="U42" s="10">
-        <v>3934</v>
-      </c>
-      <c r="V42" s="10">
-        <v>3920</v>
-      </c>
+        <v>1206</v>
+      </c>
+      <c r="V42" s="10"/>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="11">
-        <f>SUM(C37:C42)</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="11">
-        <f>SUM(D37:D42)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="11">
-        <f>SUM(E37:E42)</f>
-        <v>51382</v>
-      </c>
-      <c r="F43" s="11">
-        <f>SUM(F37:F42)</f>
-        <v>47642</v>
-      </c>
-      <c r="G43" s="14">
-        <f>SUM(G37:G42)</f>
-        <v>50446</v>
-      </c>
-      <c r="L43" s="11">
-        <f t="shared" ref="L43:T43" si="39">SUM(L37:L42)</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="11">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="11">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="11">
-        <f t="shared" si="39"/>
-        <v>47642</v>
-      </c>
-      <c r="P43" s="11">
-        <f t="shared" si="39"/>
-        <v>46090</v>
-      </c>
-      <c r="Q43" s="11">
-        <f t="shared" si="39"/>
-        <v>49125</v>
-      </c>
-      <c r="R43" s="11">
-        <f t="shared" si="39"/>
-        <v>49817</v>
-      </c>
-      <c r="S43" s="11">
-        <f t="shared" si="39"/>
-        <v>50446</v>
-      </c>
-      <c r="T43" s="11">
-        <f t="shared" si="39"/>
-        <v>51963</v>
-      </c>
-      <c r="U43" s="11">
-        <f t="shared" ref="U43" si="40">SUM(U37:U42)</f>
-        <v>51468</v>
-      </c>
-      <c r="V43" s="11">
-        <f t="shared" ref="V43" si="41">SUM(V37:V42)</f>
-        <v>52090</v>
-      </c>
-      <c r="W43" s="14">
-        <f t="shared" ref="W43" si="42">SUM(W37:W42)</f>
-        <v>0</v>
-      </c>
-      <c r="X43" s="11">
-        <f t="shared" ref="X43" si="43">SUM(X37:X42)</f>
-        <v>0</v>
-      </c>
+      <c r="B43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="15">
+        <f>50517+1387</f>
+        <v>51904</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10">
+        <f t="shared" si="29"/>
+        <v>51904</v>
+      </c>
+      <c r="T43" s="10">
+        <f>51720+1182</f>
+        <v>52902</v>
+      </c>
+      <c r="U43" s="10">
+        <f>52653+1045</f>
+        <v>53698</v>
+      </c>
+      <c r="V43" s="10"/>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
-      <c r="E44" s="10">
-        <v>3128</v>
-      </c>
-      <c r="F44" s="10">
-        <v>3464</v>
-      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="15">
-        <v>3880</v>
+        <v>2431</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
-      <c r="O44" s="10">
-        <f t="shared" ref="O44:O47" si="44">F44</f>
-        <v>3464</v>
-      </c>
-      <c r="P44" s="10">
-        <v>3256</v>
-      </c>
-      <c r="Q44" s="10">
-        <v>3315</v>
-      </c>
-      <c r="R44" s="10">
-        <v>3681</v>
-      </c>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
       <c r="S44" s="10">
-        <f t="shared" ref="S44:S47" si="45">G44</f>
-        <v>3880</v>
+        <f t="shared" si="29"/>
+        <v>2431</v>
       </c>
       <c r="T44" s="10">
-        <v>3971</v>
+        <v>2693</v>
       </c>
       <c r="U44" s="10">
-        <v>4072</v>
-      </c>
-      <c r="V44" s="10">
-        <v>3805</v>
-      </c>
+        <v>2952</v>
+      </c>
+      <c r="V44" s="10"/>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="10">
-        <v>2447</v>
-      </c>
-      <c r="F45" s="10">
-        <v>2899</v>
-      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="15">
-        <v>3490</v>
+        <v>1537</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
-      <c r="O45" s="10">
-        <f t="shared" si="44"/>
-        <v>2899</v>
-      </c>
-      <c r="P45" s="10">
-        <v>3488</v>
-      </c>
-      <c r="Q45" s="10">
-        <v>4347</v>
-      </c>
-      <c r="R45" s="10">
-        <v>3922</v>
-      </c>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
       <c r="S45" s="10">
-        <f t="shared" si="45"/>
-        <v>3490</v>
+        <f t="shared" si="29"/>
+        <v>1537</v>
       </c>
       <c r="T45" s="10">
-        <v>3937</v>
+        <v>1461</v>
       </c>
       <c r="U45" s="10">
-        <v>3883</v>
-      </c>
-      <c r="V45" s="10">
-        <v>3943</v>
-      </c>
+        <v>1592</v>
+      </c>
+      <c r="V45" s="10"/>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10">
-        <v>7505</v>
-      </c>
-      <c r="F46" s="10">
-        <v>10204</v>
-      </c>
-      <c r="G46" s="15">
-        <v>6192</v>
-      </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10">
-        <f t="shared" si="44"/>
-        <v>10204</v>
-      </c>
-      <c r="P46" s="10">
-        <v>6553</v>
-      </c>
-      <c r="Q46" s="10">
-        <v>7152</v>
-      </c>
-      <c r="R46" s="10">
-        <v>6564</v>
-      </c>
-      <c r="S46" s="10">
-        <f t="shared" si="45"/>
-        <v>6192</v>
-      </c>
-      <c r="T46" s="10">
-        <v>6170</v>
-      </c>
-      <c r="U46" s="10">
-        <v>6426</v>
-      </c>
-      <c r="V46" s="10">
-        <v>6309</v>
+      <c r="C46" s="11">
+        <f>SUM(C37:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="11">
+        <f>SUM(D37:D45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="11">
+        <f>SUM(E37:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <f>SUM(F37:F45)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="14">
+        <f>SUM(G37:G45)</f>
+        <v>250890</v>
+      </c>
+      <c r="L46" s="11">
+        <f>SUM(L37:L45)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <f>SUM(M37:M45)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <f>SUM(N37:N45)</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <f>SUM(O37:O45)</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <f>SUM(P37:P45)</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <f>SUM(Q37:Q45)</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <f>SUM(R37:R45)</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <f>SUM(S37:S45)</f>
+        <v>250890</v>
+      </c>
+      <c r="T46" s="11">
+        <f>SUM(T37:T45)</f>
+        <v>254326</v>
+      </c>
+      <c r="U46" s="11">
+        <f>SUM(U37:U45)</f>
+        <v>259096</v>
+      </c>
+      <c r="V46" s="11">
+        <f>SUM(V37:V45)</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="14">
+        <f>SUM(W37:W45)</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="11">
+        <f>SUM(X37:X45)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="10">
-        <v>0</v>
-      </c>
-      <c r="F47" s="10">
-        <v>12</v>
-      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="15">
-        <v>5</v>
+        <v>9240</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
-      <c r="O47" s="10">
-        <f t="shared" si="44"/>
-        <v>12</v>
-      </c>
-      <c r="P47" s="10">
-        <v>11</v>
-      </c>
-      <c r="Q47" s="10">
-        <v>5</v>
-      </c>
-      <c r="R47" s="10">
-        <v>5</v>
-      </c>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
       <c r="S47" s="10">
-        <f t="shared" si="45"/>
-        <v>5</v>
+        <f t="shared" si="29"/>
+        <v>9240</v>
       </c>
       <c r="T47" s="10">
-        <v>5</v>
+        <v>9356</v>
       </c>
       <c r="U47" s="10">
-        <v>6</v>
-      </c>
-      <c r="V47" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="11">
-        <f>SUM(C44:C47)</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="11">
-        <f>SUM(D44:D47)</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="11">
-        <f>SUM(E44:E47)</f>
-        <v>13080</v>
-      </c>
-      <c r="F48" s="11">
-        <f>SUM(F44:F47)</f>
-        <v>16579</v>
-      </c>
-      <c r="G48" s="14">
-        <f>SUM(G44:G47)</f>
-        <v>13567</v>
-      </c>
-      <c r="L48" s="11">
-        <f t="shared" ref="L48:T48" si="46">SUM(L44:L47)</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="11">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="11">
-        <f t="shared" si="46"/>
-        <v>16579</v>
-      </c>
-      <c r="P48" s="11">
-        <f t="shared" si="46"/>
-        <v>13308</v>
-      </c>
-      <c r="Q48" s="11">
-        <f t="shared" si="46"/>
-        <v>14819</v>
-      </c>
-      <c r="R48" s="11">
-        <f t="shared" si="46"/>
-        <v>14172</v>
-      </c>
-      <c r="S48" s="11">
-        <f t="shared" si="46"/>
-        <v>13567</v>
-      </c>
-      <c r="T48" s="11">
-        <f t="shared" si="46"/>
-        <v>14083</v>
-      </c>
-      <c r="U48" s="11">
-        <f t="shared" ref="U48" si="47">SUM(U44:U47)</f>
-        <v>14387</v>
-      </c>
-      <c r="V48" s="11">
-        <f t="shared" ref="V48" si="48">SUM(V44:V47)</f>
-        <v>14062</v>
-      </c>
-      <c r="W48" s="14">
-        <f t="shared" ref="W48" si="49">SUM(W44:W47)</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="11">
-        <f t="shared" ref="X48" si="50">SUM(X44:X47)</f>
-        <v>0</v>
-      </c>
+        <v>9606</v>
+      </c>
+      <c r="V47" s="10"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="15">
+        <v>7797</v>
+      </c>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10">
+        <f t="shared" si="29"/>
+        <v>7797</v>
+      </c>
+      <c r="T48" s="10">
+        <v>1557</v>
+      </c>
+      <c r="U48" s="10">
+        <v>1078</v>
+      </c>
+      <c r="V48" s="10"/>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
-      <c r="E49" s="10">
-        <v>5525</v>
-      </c>
-      <c r="F49" s="10">
-        <v>3668</v>
-      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="15">
-        <v>4315</v>
+        <v>2797</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
-      <c r="O49" s="10">
-        <f t="shared" ref="O49:O51" si="51">F49</f>
-        <v>3668</v>
-      </c>
-      <c r="P49" s="10">
-        <v>3725</v>
-      </c>
-      <c r="Q49" s="10">
-        <v>3877</v>
-      </c>
-      <c r="R49" s="10">
-        <v>3482</v>
-      </c>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
       <c r="S49" s="10">
-        <f t="shared" ref="S49:S51" si="52">G49</f>
-        <v>4315</v>
+        <f t="shared" si="29"/>
+        <v>2797</v>
       </c>
       <c r="T49" s="10">
-        <v>4287</v>
+        <v>40752</v>
       </c>
       <c r="U49" s="10">
-        <v>4187</v>
-      </c>
-      <c r="V49" s="10">
-        <v>4348</v>
-      </c>
+        <v>44534</v>
+      </c>
+      <c r="V49" s="10"/>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
-      <c r="E50" s="10">
-        <v>6599</v>
-      </c>
-      <c r="F50" s="10">
-        <v>6762</v>
-      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="15">
-        <v>6537</v>
+        <v>52880</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
-      <c r="O50" s="10">
-        <f t="shared" si="51"/>
-        <v>6762</v>
-      </c>
-      <c r="P50" s="10">
-        <v>6126</v>
-      </c>
-      <c r="Q50" s="10">
-        <v>6296</v>
-      </c>
-      <c r="R50" s="10">
-        <v>6762</v>
-      </c>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
       <c r="S50" s="10">
-        <f t="shared" si="52"/>
-        <v>6537</v>
+        <f t="shared" si="29"/>
+        <v>52880</v>
       </c>
       <c r="T50" s="10">
-        <v>6546</v>
+        <v>16378</v>
       </c>
       <c r="U50" s="10">
-        <v>6525</v>
-      </c>
-      <c r="V50" s="10">
-        <v>6651</v>
-      </c>
+        <v>15938</v>
+      </c>
+      <c r="V50" s="10"/>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="10">
-        <v>3244</v>
-      </c>
-      <c r="F51" s="10">
-        <v>4633</v>
-      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="15">
-        <v>4360</v>
+        <v>7065</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
-      <c r="O51" s="10">
-        <f t="shared" si="51"/>
-        <v>4633</v>
-      </c>
-      <c r="P51" s="10">
-        <v>4331</v>
-      </c>
-      <c r="Q51" s="10">
-        <v>4700</v>
-      </c>
-      <c r="R51" s="10">
-        <v>4633</v>
-      </c>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
       <c r="S51" s="10">
-        <f t="shared" si="52"/>
-        <v>4360</v>
+        <f t="shared" si="29"/>
+        <v>7065</v>
       </c>
       <c r="T51" s="10">
-        <v>4519</v>
+        <v>17401</v>
       </c>
       <c r="U51" s="10">
-        <v>4596</v>
-      </c>
-      <c r="V51" s="10">
-        <v>3674</v>
-      </c>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+        <v>17917</v>
+      </c>
+      <c r="V51" s="10"/>
+    </row>
+    <row r="52" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C52" s="11">
-        <f>SUM(C48:C51)</f>
+        <f>SUM(C47:C51)</f>
         <v>0</v>
       </c>
       <c r="D52" s="11">
-        <f>SUM(D48:D51)</f>
+        <f>SUM(D47:D51)</f>
         <v>0</v>
       </c>
       <c r="E52" s="11">
-        <f>SUM(E48:E51)</f>
-        <v>28448</v>
+        <f>SUM(E47:E51)</f>
+        <v>0</v>
       </c>
       <c r="F52" s="11">
-        <f>SUM(F48:F51)</f>
-        <v>31642</v>
+        <f>SUM(F47:F51)</f>
+        <v>0</v>
       </c>
       <c r="G52" s="14">
-        <f>SUM(G48:G51)</f>
-        <v>28779</v>
+        <f>SUM(G47:G51)</f>
+        <v>79779</v>
       </c>
       <c r="L52" s="11">
-        <f t="shared" ref="L52:T52" si="53">SUM(L48:L51)</f>
+        <f>SUM(L47:L51)</f>
         <v>0</v>
       </c>
       <c r="M52" s="11">
-        <f t="shared" si="53"/>
+        <f>SUM(M47:M51)</f>
         <v>0</v>
       </c>
       <c r="N52" s="11">
-        <f t="shared" si="53"/>
+        <f>SUM(N47:N51)</f>
         <v>0</v>
       </c>
       <c r="O52" s="11">
-        <f t="shared" si="53"/>
-        <v>31642</v>
+        <f>SUM(O47:O51)</f>
+        <v>0</v>
       </c>
       <c r="P52" s="11">
-        <f t="shared" si="53"/>
-        <v>27490</v>
+        <f>SUM(P47:P51)</f>
+        <v>0</v>
       </c>
       <c r="Q52" s="11">
-        <f t="shared" si="53"/>
-        <v>29692</v>
+        <f>SUM(Q47:Q51)</f>
+        <v>0</v>
       </c>
       <c r="R52" s="11">
-        <f t="shared" si="53"/>
-        <v>29049</v>
+        <f>SUM(R47:R51)</f>
+        <v>0</v>
       </c>
       <c r="S52" s="11">
-        <f t="shared" si="53"/>
-        <v>28779</v>
+        <f>SUM(S47:S51)</f>
+        <v>79779</v>
       </c>
       <c r="T52" s="11">
-        <f t="shared" si="53"/>
-        <v>29435</v>
+        <f>SUM(T47:T51)</f>
+        <v>85444</v>
       </c>
       <c r="U52" s="11">
-        <f t="shared" ref="U52" si="54">SUM(U48:U51)</f>
-        <v>29695</v>
+        <f>SUM(U47:U51)</f>
+        <v>89073</v>
       </c>
       <c r="V52" s="11">
-        <f t="shared" ref="V52" si="55">SUM(V48:V51)</f>
-        <v>28735</v>
+        <f>SUM(V47:V51)</f>
+        <v>0</v>
       </c>
       <c r="W52" s="14">
-        <f t="shared" ref="W52" si="56">SUM(W48:W51)</f>
+        <f>SUM(W47:W51)</f>
         <v>0</v>
       </c>
       <c r="X52" s="11">
-        <f t="shared" ref="X52" si="57">SUM(X48:X51)</f>
+        <f>SUM(X47:X51)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="10">
-        <f>C43-C52</f>
+        <v>212</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="15">
+        <v>9240</v>
+      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10">
+        <f t="shared" si="29"/>
+        <v>9240</v>
+      </c>
+      <c r="T53" s="10">
+        <v>228</v>
+      </c>
+      <c r="U53" s="10">
+        <v>226</v>
+      </c>
+      <c r="V53" s="10"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="15">
+        <v>1401</v>
+      </c>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10">
+        <f t="shared" si="29"/>
+        <v>1401</v>
+      </c>
+      <c r="T54" s="10">
+        <v>8152</v>
+      </c>
+      <c r="U54" s="10">
+        <v>7911</v>
+      </c>
+      <c r="V54" s="10"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="15">
+        <v>42130</v>
+      </c>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10">
+        <f t="shared" si="29"/>
+        <v>42130</v>
+      </c>
+      <c r="T55" s="10">
+        <v>2981</v>
+      </c>
+      <c r="U55" s="10">
+        <v>3192</v>
+      </c>
+      <c r="V55" s="10"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="15">
+        <v>15547</v>
+      </c>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10">
+        <f t="shared" si="29"/>
+        <v>15547</v>
+      </c>
+      <c r="T56" s="10">
+        <v>54386</v>
+      </c>
+      <c r="U56" s="10">
+        <v>57726</v>
+      </c>
+      <c r="V56" s="10"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="15">
+        <v>18683</v>
+      </c>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10">
+        <f t="shared" si="29"/>
+        <v>18683</v>
+      </c>
+      <c r="T57" s="10">
+        <v>7496</v>
+      </c>
+      <c r="U57" s="10">
+        <v>7494</v>
+      </c>
+      <c r="V57" s="10"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="11">
+        <f>SUM(C52:C57)</f>
         <v>0</v>
       </c>
-      <c r="D53" s="10">
-        <f>D43-D52</f>
+      <c r="D58" s="11">
+        <f>SUM(D52:D57)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="10">
-        <f>E43-E52</f>
-        <v>22934</v>
-      </c>
-      <c r="F53" s="10">
-        <f>F43-F52</f>
-        <v>16000</v>
-      </c>
-      <c r="G53" s="15">
-        <f>G43-G52</f>
-        <v>21667</v>
-      </c>
-      <c r="L53" s="10">
-        <f t="shared" ref="L53:T53" si="58">L43-L52</f>
+      <c r="E58" s="11">
+        <f>SUM(E52:E57)</f>
         <v>0</v>
       </c>
-      <c r="M53" s="10">
-        <f t="shared" si="58"/>
+      <c r="F58" s="11">
+        <f>SUM(F52:F57)</f>
         <v>0</v>
       </c>
-      <c r="N53" s="10">
-        <f t="shared" si="58"/>
+      <c r="G58" s="14">
+        <f>SUM(G52:G57)</f>
+        <v>166780</v>
+      </c>
+      <c r="L58" s="11">
+        <f>SUM(L52:L57)</f>
         <v>0</v>
       </c>
-      <c r="O53" s="10">
-        <f t="shared" si="58"/>
-        <v>16000</v>
-      </c>
-      <c r="P53" s="10">
-        <f t="shared" si="58"/>
-        <v>18600</v>
-      </c>
-      <c r="Q53" s="10">
-        <f t="shared" si="58"/>
-        <v>19433</v>
-      </c>
-      <c r="R53" s="10">
-        <f t="shared" si="58"/>
-        <v>20768</v>
-      </c>
-      <c r="S53" s="10">
-        <f t="shared" si="58"/>
-        <v>21667</v>
-      </c>
-      <c r="T53" s="10">
-        <f t="shared" si="58"/>
-        <v>22528</v>
-      </c>
-      <c r="U53" s="10">
-        <f t="shared" ref="U53" si="59">U43-U52</f>
-        <v>21773</v>
-      </c>
-      <c r="V53" s="10">
-        <f t="shared" ref="V53" si="60">V43-V52</f>
-        <v>23355</v>
-      </c>
-      <c r="W53" s="15">
-        <f t="shared" ref="W53" si="61">W43-W52</f>
+      <c r="M58" s="11">
+        <f>SUM(M52:M57)</f>
         <v>0</v>
       </c>
-      <c r="X53" s="10">
-        <f t="shared" ref="X53" si="62">X43-X52</f>
+      <c r="N58" s="11">
+        <f>SUM(N52:N57)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="52"/>
-      <c r="W55" s="16"/>
-    </row>
-    <row r="73" spans="7:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G73" s="40"/>
-      <c r="W73" s="40"/>
-    </row>
-    <row r="74" spans="7:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G74" s="16"/>
-      <c r="W74" s="16"/>
+      <c r="O58" s="11">
+        <f>SUM(O52:O57)</f>
+        <v>0</v>
+      </c>
+      <c r="P58" s="11">
+        <f>SUM(P52:P57)</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="11">
+        <f>SUM(Q52:Q57)</f>
+        <v>0</v>
+      </c>
+      <c r="R58" s="11">
+        <f>SUM(R52:R57)</f>
+        <v>0</v>
+      </c>
+      <c r="S58" s="11">
+        <f>SUM(S52:S57)</f>
+        <v>166780</v>
+      </c>
+      <c r="T58" s="11">
+        <f>SUM(T52:T57)</f>
+        <v>158687</v>
+      </c>
+      <c r="U58" s="11">
+        <f>SUM(U52:U57)</f>
+        <v>165622</v>
+      </c>
+      <c r="V58" s="11">
+        <f>SUM(V52:V57)</f>
+        <v>0</v>
+      </c>
+      <c r="W58" s="14">
+        <f>SUM(W52:W57)</f>
+        <v>0</v>
+      </c>
+      <c r="X58" s="11">
+        <f>SUM(X52:X57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="10">
+        <f>C46-C58</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="10">
+        <f>D46-D58</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
+        <f>E46-E58</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="10">
+        <f>F46-F58</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="15">
+        <f>G46-G58</f>
+        <v>84110</v>
+      </c>
+      <c r="L59" s="10">
+        <f>L46-L58</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="10">
+        <f>M46-M58</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="10">
+        <f>N46-N58</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="10">
+        <f>O46-O58</f>
+        <v>0</v>
+      </c>
+      <c r="P59" s="10">
+        <f>P46-P58</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="10">
+        <f>Q46-Q58</f>
+        <v>0</v>
+      </c>
+      <c r="R59" s="10">
+        <f>R46-R58</f>
+        <v>0</v>
+      </c>
+      <c r="S59" s="10">
+        <f>S46-S58</f>
+        <v>84110</v>
+      </c>
+      <c r="T59" s="10">
+        <f>T46-T58</f>
+        <v>95639</v>
+      </c>
+      <c r="U59" s="10">
+        <f>U46-U58</f>
+        <v>93474</v>
+      </c>
+      <c r="V59" s="10">
+        <f>V46-V58</f>
+        <v>0</v>
+      </c>
+      <c r="W59" s="15">
+        <f>W46-W58</f>
+        <v>0</v>
+      </c>
+      <c r="X59" s="10">
+        <f>X46-X58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52"/>
+      <c r="W61" s="16"/>
+    </row>
+    <row r="79" spans="7:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G79" s="40"/>
+      <c r="W79" s="40"/>
+    </row>
+    <row r="80" spans="7:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G80" s="16"/>
+      <c r="W80" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16883,7 +16635,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C48" formula="1"/>
+    <ignoredError sqref="C52" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -16900,7 +16652,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -16914,13 +16666,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16960,35 +16712,35 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" t="s">
-        <v>36</v>
-      </c>
       <c r="R1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" t="s">
         <v>126</v>
-      </c>
-      <c r="U1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -17004,25 +16756,40 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="N3" s="10">
+        <v>216270</v>
+      </c>
+      <c r="O3" s="10">
+        <v>232994</v>
+      </c>
+      <c r="P3" s="10">
+        <v>221735</v>
+      </c>
       <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
+      <c r="R3" s="10">
+        <v>228003</v>
+      </c>
+      <c r="S3" s="10">
+        <v>232790</v>
+      </c>
+      <c r="T3" s="10">
+        <v>219488</v>
+      </c>
+      <c r="U3" s="10">
+        <f>F3-T3-S3-R3</f>
+        <v>266954</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10">
-        <v>714530</v>
+        <v>480994</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -17031,25 +16798,40 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="N4" s="10">
+        <v>107885</v>
+      </c>
+      <c r="O4" s="10">
+        <v>117790</v>
+      </c>
+      <c r="P4" s="10">
+        <v>113823</v>
+      </c>
       <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="R4" s="10">
+        <v>108959</v>
+      </c>
+      <c r="S4" s="10">
+        <v>121182</v>
+      </c>
+      <c r="T4" s="10">
+        <v>101561</v>
+      </c>
+      <c r="U4" s="10">
+        <f>F4-T4-S4-R4</f>
+        <v>149292</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10">
-        <v>480994</v>
+        <v>714530</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -17058,18 +16840,33 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="N5" s="10">
+        <v>195100</v>
+      </c>
+      <c r="O5" s="10">
+        <v>198161</v>
+      </c>
+      <c r="P5" s="10">
+        <v>210659</v>
+      </c>
       <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
+      <c r="R5" s="10">
+        <v>187692</v>
+      </c>
+      <c r="S5" s="10">
+        <v>188661</v>
+      </c>
+      <c r="T5" s="10">
+        <v>147839</v>
+      </c>
+      <c r="U5" s="10">
+        <f>F5-T5-S5-R5</f>
+        <v>190338</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -17085,18 +16882,39 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="N6" s="10">
+        <f>251927-N5+12086</f>
+        <v>68913</v>
+      </c>
+      <c r="O6" s="10">
+        <f>261242-O5+14700</f>
+        <v>77781</v>
+      </c>
+      <c r="P6" s="10">
+        <f>272255-P5+13886</f>
+        <v>75482</v>
+      </c>
       <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
+      <c r="R6" s="10">
+        <f>244697-R5+12874</f>
+        <v>69879</v>
+      </c>
+      <c r="S6" s="10">
+        <f>249870-S5+14901</f>
+        <v>76110</v>
+      </c>
+      <c r="T6" s="10">
+        <f>206624-T5+13208</f>
+        <v>71993</v>
+      </c>
+      <c r="U6" s="10">
+        <f>F6-T6-S6-R6</f>
+        <v>90063</v>
+      </c>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -17133,15 +16951,15 @@
       </c>
       <c r="N7" s="11">
         <f>SUM(N3:N6)</f>
-        <v>0</v>
+        <v>588168</v>
       </c>
       <c r="O7" s="11">
         <f>SUM(O3:O6)</f>
-        <v>0</v>
+        <v>626726</v>
       </c>
       <c r="P7" s="11">
         <f>SUM(P3:P6)</f>
-        <v>0</v>
+        <v>621699</v>
       </c>
       <c r="Q7" s="11">
         <f>SUM(Q3:Q6)</f>
@@ -17149,19 +16967,19 @@
       </c>
       <c r="R7" s="11">
         <f>SUM(R3:R6)</f>
-        <v>0</v>
+        <v>594533</v>
       </c>
       <c r="S7" s="11">
         <f>SUM(S3:S6)</f>
-        <v>0</v>
+        <v>618743</v>
       </c>
       <c r="T7" s="11">
         <f>SUM(T3:T6)</f>
-        <v>0</v>
+        <v>540881</v>
       </c>
       <c r="U7" s="11">
         <f>SUM(U3:U6)</f>
-        <v>0</v>
+        <v>696647</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -17188,7 +17006,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -17218,23 +17036,26 @@
         <f>Q3/M3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R9" s="3" t="e">
-        <f>R3/N3-1</f>
+      <c r="R9" s="3">
+        <f>T3/N3-1</f>
+        <v>1.4879548712257717E-2</v>
+      </c>
+      <c r="S9" s="3">
+        <f>S3/O3-1</f>
+        <v>-8.7555902727110002E-4</v>
+      </c>
+      <c r="T9" s="129">
+        <f>T3/P3-1</f>
+        <v>-1.013371817710329E-2</v>
+      </c>
+      <c r="U9" s="129" t="e">
+        <f>U3/Q3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S9" s="3" t="e">
-        <f>S3/O3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T9" s="129" t="e">
-        <f>T3/P3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U9" s="10"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -17249,38 +17070,41 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="3" t="e">
-        <f>N5/J5-1</f>
+        <f>N4/J4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O10" s="3" t="e">
-        <f>O5/K5-1</f>
+        <f>O4/K4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P10" s="3" t="e">
-        <f>P5/L5-1</f>
+        <f>P4/L4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q10" s="3" t="e">
-        <f>Q5/M5-1</f>
+        <f>Q4/M4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R10" s="3" t="e">
-        <f t="shared" ref="R10:T11" si="0">R5/N5-1</f>
+      <c r="R10" s="3">
+        <f>R4/N4-1</f>
+        <v>9.9550447235481343E-3</v>
+      </c>
+      <c r="S10" s="3">
+        <f>S4/O4-1</f>
+        <v>2.8797011630868452E-2</v>
+      </c>
+      <c r="T10" s="3">
+        <f>T4/P4-1</f>
+        <v>-0.10772866643824186</v>
+      </c>
+      <c r="U10" s="3" t="e">
+        <f>U4/Q4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10" s="10"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -17295,34 +17119,37 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="3" t="e">
-        <f>N4/J4-1</f>
+        <f>N5/J5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O11" s="3" t="e">
-        <f t="shared" ref="O11:T11" si="1">O4/K4-1</f>
+        <f>O5/K5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P11" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f>P5/L5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q11" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f>Q5/M5-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R11" s="3" t="e">
-        <f t="shared" si="1"/>
+      <c r="R11" s="3">
+        <f>R5/N5-1</f>
+        <v>-3.7970271655561216E-2</v>
+      </c>
+      <c r="S11" s="3">
+        <f>S5/O5-1</f>
+        <v>-4.7940815801292835E-2</v>
+      </c>
+      <c r="T11" s="129">
+        <f>T5/P5-1</f>
+        <v>-0.29820705500358402</v>
+      </c>
+      <c r="U11" s="129" t="e">
+        <f>U5/Q5-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S11" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
@@ -17348,7 +17175,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="125" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B13" s="10">
         <v>44541</v>
@@ -17382,7 +17209,9 @@
       <c r="U13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="125"/>
+      <c r="A14" s="125" t="s">
+        <v>177</v>
+      </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -17393,18 +17222,39 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
+      <c r="L14" s="150">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="M14" s="150">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="N14" s="150">
+        <v>0.11</v>
+      </c>
+      <c r="O14" s="150">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P14" s="150">
+        <v>0.151</v>
+      </c>
+      <c r="Q14" s="150">
+        <v>0.18</v>
+      </c>
+      <c r="R14" s="150">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S14" s="150">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="T14" s="150">
+        <v>0.191</v>
+      </c>
+      <c r="U14" s="150"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -17419,11 +17269,15 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="P15" s="10">
+        <v>52037</v>
+      </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
+      <c r="T15" s="10">
+        <v>50364</v>
+      </c>
       <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -17494,15 +17348,15 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11">
-        <f t="shared" ref="C19:D19" si="2">SUM(C13:C18)</f>
+        <f t="shared" ref="C19:D19" si="0">SUM(C13:C18)</f>
         <v>103854</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>215752</v>
       </c>
       <c r="E19" s="11">
@@ -17524,53 +17378,53 @@
         <v>0</v>
       </c>
       <c r="K19" s="11">
-        <f t="shared" ref="K19:U19" si="3">SUM(K13:K18)</f>
+        <f t="shared" ref="K19:U19" si="1">SUM(K13:K18)</f>
         <v>0</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="M19" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.11</v>
       </c>
       <c r="O19" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P19" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>52037.150999999998</v>
       </c>
       <c r="Q19" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.18</v>
       </c>
       <c r="R19" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S19" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17399999999999999</v>
       </c>
       <c r="T19" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>50364.190999999999</v>
       </c>
       <c r="U19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D21" s="3">
         <f>D13/C13-1</f>
@@ -17585,19 +17439,19 @@
         <v>0.13541611216983029</v>
       </c>
       <c r="N21" s="3" t="e">
-        <f t="shared" ref="N21:Q21" si="4">N13/J13-1</f>
+        <f t="shared" ref="N21:Q21" si="2">N13/J13-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R21" s="3" t="e">
@@ -17619,7 +17473,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D22" s="3" t="e">
         <f>((D15+D16)/(C15+C16))-1</f>
@@ -17638,15 +17492,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O22" s="3" t="e">
-        <f t="shared" ref="O22:Q22" si="5">((O15+O16)/(K15+K16))-1</f>
+        <f t="shared" ref="O22:Q22" si="3">((O15+O16)/(K15+K16))-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q22" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R22" s="3" t="e">
@@ -17657,9 +17511,9 @@
         <f>((S15+S16)/(O15+O16))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T22" s="3" t="e">
+      <c r="T22" s="3">
         <f>((T15+T16)/(P15+P16))-1</f>
-        <v>#DIV/0!</v>
+        <v>-3.2150200818648278E-2</v>
       </c>
       <c r="U22" s="3" t="e">
         <f>((U15+U16)/(Q15+Q16))-1</f>
@@ -17668,7 +17522,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D23" s="130" t="e">
         <f>D18/C18-1</f>
@@ -17683,19 +17537,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="3" t="e">
-        <f t="shared" ref="N23:Q23" si="6">N18/J18-1</f>
+        <f t="shared" ref="N23:Q23" si="4">N18/J18-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="129" t="e">
@@ -17717,576 +17571,1147 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="153" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11">
+        <f t="shared" ref="K27:S27" si="5">SUM(K28:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
+        <f t="shared" si="5"/>
+        <v>64647</v>
+      </c>
+      <c r="O27" s="11">
+        <f t="shared" si="5"/>
+        <v>88289</v>
+      </c>
+      <c r="P27" s="11">
+        <f t="shared" si="5"/>
+        <v>93931</v>
+      </c>
+      <c r="Q27" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="11">
+        <f t="shared" si="5"/>
+        <v>82689</v>
+      </c>
+      <c r="S27" s="11">
+        <f t="shared" si="5"/>
+        <v>107925</v>
+      </c>
+      <c r="T27" s="11">
+        <f>SUM(T28:T30)</f>
+        <v>103438</v>
+      </c>
+      <c r="U27" s="11">
+        <f>SUM(U28:U30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="125" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="125">
-        <v>911</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10">
-        <v>39068</v>
-      </c>
-      <c r="D27" s="10">
-        <v>40715</v>
-      </c>
-      <c r="E27" s="10">
-        <v>53741</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10">
-        <v>9788</v>
-      </c>
-      <c r="K27" s="10">
-        <f>21489-J27</f>
-        <v>11701</v>
-      </c>
-      <c r="L27" s="10">
-        <f>30588-K27-J27</f>
-        <v>9099</v>
-      </c>
-      <c r="M27" s="10">
-        <f>D27-L27-K27-J27</f>
-        <v>10127</v>
-      </c>
-      <c r="N27" s="10">
-        <v>12835</v>
-      </c>
-      <c r="O27" s="10">
-        <f>27856-N27</f>
-        <v>15021</v>
-      </c>
-      <c r="P27" s="10">
-        <f>39816-O27-N27</f>
-        <v>11960</v>
-      </c>
-      <c r="Q27" s="10">
-        <f>E27-P27-O27-N27</f>
-        <v>13925</v>
-      </c>
-      <c r="R27" s="10">
-        <v>12919</v>
-      </c>
-      <c r="S27" s="10">
-        <f>26346-R27</f>
-        <v>13427</v>
-      </c>
-      <c r="T27" s="10">
-        <f>38232-S27-R27</f>
-        <v>11886</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="125">
-        <v>718</v>
-      </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="10">
-        <v>19250</v>
-      </c>
-      <c r="D28" s="10">
-        <v>18392</v>
-      </c>
-      <c r="E28" s="10">
-        <v>22395</v>
-      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="10">
-        <v>4641</v>
-      </c>
-      <c r="K28" s="10">
-        <f>10091-J28</f>
-        <v>5450</v>
-      </c>
-      <c r="L28" s="10">
-        <f>13940-K28-J28</f>
-        <v>3849</v>
-      </c>
-      <c r="M28" s="10">
-        <f t="shared" ref="M28:M32" si="7">D28-L28-K28-J28</f>
-        <v>4452</v>
-      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="10">
-        <v>5561</v>
+        <v>55979</v>
       </c>
       <c r="O28" s="10">
-        <f>11703-N28</f>
-        <v>6142</v>
+        <f>133927-N28</f>
+        <v>77948</v>
       </c>
       <c r="P28" s="10">
-        <f>16874-O28-N28</f>
-        <v>5171</v>
-      </c>
-      <c r="Q28" s="10">
-        <f t="shared" ref="Q28:Q32" si="8">E28-P28-O28-N28</f>
-        <v>5521</v>
-      </c>
+        <f>217138-O28-N28</f>
+        <v>83211</v>
+      </c>
+      <c r="Q28" s="10"/>
       <c r="R28" s="10">
-        <v>6002</v>
+        <v>78682</v>
       </c>
       <c r="S28" s="10">
-        <f>11703-R28</f>
-        <v>5701</v>
+        <f>179554-R28</f>
+        <v>100872</v>
       </c>
       <c r="T28" s="10">
-        <f>17851-S28-R28</f>
-        <v>6148</v>
+        <f>266152-S28-R28</f>
+        <v>86598</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="10">
-        <v>86529</v>
-      </c>
-      <c r="D29" s="10">
-        <v>89767</v>
-      </c>
-      <c r="E29" s="10">
-        <v>90161</v>
-      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="10">
-        <v>17781</v>
-      </c>
-      <c r="K29" s="10">
-        <f>39386-J29</f>
-        <v>21605</v>
-      </c>
-      <c r="L29" s="10">
-        <f>62678-K29-J29</f>
-        <v>23292</v>
-      </c>
-      <c r="M29" s="10">
-        <f t="shared" si="7"/>
-        <v>27089</v>
-      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
       <c r="N29" s="10">
-        <v>24387</v>
+        <v>8668</v>
       </c>
       <c r="O29" s="10">
-        <f>46842-N29</f>
-        <v>22455</v>
+        <f>19009-N29</f>
+        <v>10341</v>
       </c>
       <c r="P29" s="10">
-        <f>67353-O29-N29</f>
-        <v>20511</v>
-      </c>
-      <c r="Q29" s="10">
-        <f t="shared" si="8"/>
-        <v>22808</v>
-      </c>
+        <f>29729-O29-N29</f>
+        <v>10720</v>
+      </c>
+      <c r="Q29" s="10"/>
       <c r="R29" s="10">
-        <v>19323</v>
+        <v>3428</v>
       </c>
       <c r="S29" s="10">
-        <f>36600-R29</f>
-        <v>17277</v>
+        <f>9950-R29</f>
+        <v>6522</v>
       </c>
       <c r="T29" s="10">
-        <f>55693-S29-R29</f>
-        <v>19093</v>
+        <f>26483-S29-R29</f>
+        <v>16533</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="10">
-        <v>81541</v>
-      </c>
-      <c r="D30" s="10">
-        <v>96800</v>
-      </c>
-      <c r="E30" s="10">
-        <v>92866</v>
-      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="10">
-        <v>18161</v>
-      </c>
-      <c r="K30" s="10">
-        <f>44600-J30</f>
-        <v>26439</v>
-      </c>
-      <c r="L30" s="10">
-        <f>66996-K30-J30</f>
-        <v>22396</v>
-      </c>
-      <c r="M30" s="10">
-        <f t="shared" si="7"/>
-        <v>29804</v>
-      </c>
-      <c r="N30" s="10">
-        <v>23707</v>
-      </c>
-      <c r="O30" s="10">
-        <f>46399-N30</f>
-        <v>22692</v>
-      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
       <c r="P30" s="10">
-        <f>69461-O30-N30</f>
-        <v>23062</v>
-      </c>
-      <c r="Q30" s="10">
-        <f t="shared" si="8"/>
-        <v>23405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="10"/>
       <c r="R30" s="10">
-        <v>23987</v>
+        <v>579</v>
       </c>
       <c r="S30" s="10">
-        <f>52769-R30</f>
-        <v>28782</v>
+        <f>1110-R30</f>
+        <v>531</v>
       </c>
       <c r="T30" s="10">
-        <f>72743-S30-R30</f>
-        <v>19974</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10">
-        <v>31679</v>
-      </c>
-      <c r="D31" s="10">
-        <v>33958</v>
-      </c>
-      <c r="E31" s="10">
-        <v>34386</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10">
-        <v>6949</v>
-      </c>
-      <c r="K31" s="10">
-        <f>15528-J31</f>
-        <v>8579</v>
-      </c>
-      <c r="L31" s="10">
-        <f>24639-K31-J31</f>
-        <v>9111</v>
-      </c>
-      <c r="M31" s="10">
-        <f t="shared" si="7"/>
-        <v>9319</v>
-      </c>
-      <c r="N31" s="10">
-        <v>9652</v>
-      </c>
-      <c r="O31" s="10">
-        <f>18993-N31</f>
-        <v>9341</v>
-      </c>
-      <c r="P31" s="10">
-        <f>27484-O31-N31</f>
-        <v>8491</v>
-      </c>
-      <c r="Q31" s="10">
-        <f t="shared" si="8"/>
-        <v>6902</v>
-      </c>
-      <c r="R31" s="10">
-        <v>4101</v>
-      </c>
-      <c r="S31" s="10">
-        <f>15092-R31</f>
-        <v>10991</v>
-      </c>
-      <c r="T31" s="10">
-        <f>21377-S31-R31</f>
-        <v>6285</v>
+        <f>1417-S30-R30</f>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="152" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11">
+        <f t="shared" ref="K31:S31" si="6">SUM(K32:K33)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="11">
+        <f t="shared" si="6"/>
+        <v>45839</v>
+      </c>
+      <c r="O31" s="11">
+        <f t="shared" si="6"/>
+        <v>46693</v>
+      </c>
+      <c r="P31" s="11">
+        <f t="shared" si="6"/>
+        <v>46012</v>
+      </c>
+      <c r="Q31" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="11">
+        <f t="shared" si="6"/>
+        <v>39893</v>
+      </c>
+      <c r="S31" s="11">
+        <f t="shared" si="6"/>
+        <v>38550</v>
+      </c>
+      <c r="T31" s="11">
+        <f>SUM(T32:T33)</f>
+        <v>36625</v>
+      </c>
+      <c r="U31" s="11">
+        <f>SUM(U32:U33)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="10">
-        <v>39222</v>
-      </c>
-      <c r="D32" s="10">
-        <v>34089</v>
-      </c>
-      <c r="E32" s="10">
-        <v>40056</v>
-      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="10">
-        <v>8281</v>
-      </c>
-      <c r="K32" s="10">
-        <f>17474-J32</f>
-        <v>9193</v>
-      </c>
-      <c r="L32" s="10">
-        <f>21745-K32-J32</f>
-        <v>4271</v>
-      </c>
-      <c r="M32" s="10">
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10">
+        <v>41514</v>
+      </c>
+      <c r="O32" s="10">
+        <f>83427-N32</f>
+        <v>41913</v>
+      </c>
+      <c r="P32" s="10">
+        <f>125891-O32-N32</f>
+        <v>42464</v>
+      </c>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10">
+        <v>38334</v>
+      </c>
+      <c r="S32" s="10">
+        <f>76265-R32</f>
+        <v>37931</v>
+      </c>
+      <c r="T32" s="10">
+        <f>112698-S32-R32</f>
+        <v>36433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10">
+        <v>4325</v>
+      </c>
+      <c r="O33" s="10">
+        <f>9105-N33</f>
+        <v>4780</v>
+      </c>
+      <c r="P33" s="10">
+        <f>12653-O33-N33</f>
+        <v>3548</v>
+      </c>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10">
+        <v>1559</v>
+      </c>
+      <c r="S33" s="10">
+        <f>2178-R33</f>
+        <v>619</v>
+      </c>
+      <c r="T33" s="10">
+        <f>2370-S33-R33</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11">
+        <f t="shared" ref="C34:F34" si="7">SUM(C27:C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="11">
         <f t="shared" si="7"/>
-        <v>12344</v>
-      </c>
-      <c r="N32" s="10">
-        <v>8595</v>
-      </c>
-      <c r="O32" s="10">
-        <f>19009-N32</f>
-        <v>10414</v>
-      </c>
-      <c r="P32" s="10">
-        <f>29204-O32-N32</f>
-        <v>10195</v>
-      </c>
-      <c r="Q32" s="10">
-        <f t="shared" si="8"/>
-        <v>10852</v>
-      </c>
-      <c r="R32" s="10">
-        <v>4273</v>
-      </c>
-      <c r="S32" s="10">
-        <f>9182-R32</f>
-        <v>4909</v>
-      </c>
-      <c r="T32" s="10">
-        <f>15408-S32-R32</f>
-        <v>6226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11">
-        <f t="shared" ref="C33:F33" si="9">SUM(C27:C32)</f>
-        <v>297289</v>
-      </c>
-      <c r="D33" s="11">
-        <f t="shared" si="9"/>
-        <v>313721</v>
-      </c>
-      <c r="E33" s="11">
-        <f t="shared" si="9"/>
-        <v>333605</v>
-      </c>
-      <c r="F33" s="11">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11">
-        <f>SUM(J27:J32)</f>
-        <v>65601</v>
-      </c>
-      <c r="K33" s="11">
-        <f t="shared" ref="K33" si="10">SUM(K27:K32)</f>
-        <v>82967</v>
-      </c>
-      <c r="L33" s="11">
-        <f t="shared" ref="L33" si="11">SUM(L27:L32)</f>
-        <v>72018</v>
-      </c>
-      <c r="M33" s="11">
-        <f t="shared" ref="M33" si="12">SUM(M27:M32)</f>
-        <v>93135</v>
-      </c>
-      <c r="N33" s="11">
-        <f t="shared" ref="N33" si="13">SUM(N27:N32)</f>
-        <v>84737</v>
-      </c>
-      <c r="O33" s="11">
-        <f t="shared" ref="O33" si="14">SUM(O27:O32)</f>
-        <v>86065</v>
-      </c>
-      <c r="P33" s="11">
-        <f t="shared" ref="P33" si="15">SUM(P27:P32)</f>
-        <v>79390</v>
-      </c>
-      <c r="Q33" s="11">
-        <f t="shared" ref="Q33" si="16">SUM(Q27:Q32)</f>
-        <v>83413</v>
-      </c>
-      <c r="R33" s="11">
-        <f t="shared" ref="R33" si="17">SUM(R27:R32)</f>
-        <v>70605</v>
-      </c>
-      <c r="S33" s="11">
-        <f t="shared" ref="S33:T33" si="18">SUM(S27:S32)</f>
-        <v>81087</v>
-      </c>
-      <c r="T33" s="11">
+      <c r="E34" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11">
+        <f>SUM(J27:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" ref="K34" si="8">SUM(K27:K33)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <f t="shared" ref="L34" si="9">SUM(L27:L33)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <f t="shared" ref="M34" si="10">SUM(M27:M33)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <f t="shared" ref="N34" si="11">SUM(N27:N33)</f>
+        <v>220972</v>
+      </c>
+      <c r="O34" s="11">
+        <f t="shared" ref="O34" si="12">SUM(O27:O33)</f>
+        <v>269964</v>
+      </c>
+      <c r="P34" s="11">
+        <f t="shared" ref="P34" si="13">SUM(P27:P33)</f>
+        <v>279886</v>
+      </c>
+      <c r="Q34" s="11">
+        <f t="shared" ref="Q34" si="14">SUM(Q27:Q33)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="11">
+        <f t="shared" ref="R34" si="15">SUM(R27:R33)</f>
+        <v>245164</v>
+      </c>
+      <c r="S34" s="11">
+        <f t="shared" ref="S34:U34" si="16">SUM(S27:S33)</f>
+        <v>292950</v>
+      </c>
+      <c r="T34" s="11">
+        <f t="shared" si="16"/>
+        <v>280126</v>
+      </c>
+      <c r="U34" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="3" t="e">
+        <f>D27/C27-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="3" t="e">
+        <f>E27/D27-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="3" t="e">
+        <f>F27/E27-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="3" t="e">
+        <f t="shared" ref="K36:Q36" si="17">K27/G27-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P36" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q36" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R36" s="3">
+        <f>R27/N27-1</f>
+        <v>0.27908487632836798</v>
+      </c>
+      <c r="S36" s="3">
+        <f>S27/O27-1</f>
+        <v>0.2224059622376513</v>
+      </c>
+      <c r="T36" s="129">
+        <f>T27/P27-1</f>
+        <v>0.10121259222195023</v>
+      </c>
+      <c r="U36" s="129" t="e">
+        <f>U27/Q27-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="3" t="e">
+        <f>((D29+D30)/(C29+C30))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="3" t="e">
+        <f>((E29+E30)/(D29+D30))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="3" t="e">
+        <f>((F29+F30)/(E29+E30))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="3" t="e">
+        <f t="shared" ref="K37:Q37" si="18">K31/G31-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="3" t="e">
         <f t="shared" si="18"/>
-        <v>69612</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="3">
-        <f>D27/C27-1</f>
-        <v>4.2157264257192573E-2</v>
-      </c>
-      <c r="E35" s="3">
-        <f>E27/D27-1</f>
-        <v>0.31993122927667939</v>
-      </c>
-      <c r="F35" s="3">
-        <f>F27/E27-1</f>
-        <v>-1</v>
-      </c>
-      <c r="N35" s="3">
-        <f t="shared" ref="N35" si="19">N27/J27-1</f>
-        <v>0.31129955046996316</v>
-      </c>
-      <c r="O35" s="3">
-        <f t="shared" ref="O35" si="20">O27/K27-1</f>
-        <v>0.28373643278352279</v>
-      </c>
-      <c r="P35" s="3">
-        <f t="shared" ref="P35" si="21">P27/L27-1</f>
-        <v>0.31443015716012757</v>
-      </c>
-      <c r="Q35" s="3">
-        <f t="shared" ref="Q35" si="22">Q27/M27-1</f>
-        <v>0.37503702972252384</v>
-      </c>
-      <c r="R35" s="3">
-        <f>R27/N27-1</f>
-        <v>6.5446045968056143E-3</v>
-      </c>
-      <c r="S35" s="129">
-        <f>S27/O27-1</f>
-        <v>-0.10611810132481192</v>
-      </c>
-      <c r="T35" s="129">
-        <f>T27/P27-1</f>
-        <v>-6.1872909698996725E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="3">
-        <f>((D29+D30)/(C29+C30))-1</f>
-        <v>0.11005533408698764</v>
-      </c>
-      <c r="E36" s="3">
-        <f>((E29+E30)/(D29+D30))-1</f>
-        <v>-1.8974416697486673E-2</v>
-      </c>
-      <c r="F36" s="3">
-        <f>((F29+F30)/(E29+E30))-1</f>
-        <v>-1</v>
-      </c>
-      <c r="N36" s="3">
-        <f t="shared" ref="N36" si="23">((N29+N30)/(J29+J30))-1</f>
-        <v>0.3381002726615101</v>
-      </c>
-      <c r="O36" s="3">
-        <f t="shared" ref="O36" si="24">((O29+O30)/(K29+K30))-1</f>
-        <v>-6.0298892681708405E-2</v>
-      </c>
-      <c r="P36" s="3">
-        <f t="shared" ref="P36" si="25">((P29+P30)/(L29+L30))-1</f>
-        <v>-4.6292243039747882E-2</v>
-      </c>
-      <c r="Q36" s="3">
-        <f t="shared" ref="Q36" si="26">((Q29+Q30)/(M29+M30))-1</f>
-        <v>-0.18772080923839485</v>
-      </c>
-      <c r="R36" s="3">
-        <f>((R29+R30)/(N29+N30))-1</f>
-        <v>-9.9471867592631047E-2</v>
-      </c>
-      <c r="S36" s="3">
-        <f>((S29+S30)/(O29+O30))-1</f>
-        <v>2.0200677785899401E-2</v>
-      </c>
-      <c r="T36" s="129">
-        <f>((T29+T30)/(P29+P30))-1</f>
-        <v>-0.10341266380556768</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="130">
-        <f>D32/C32-1</f>
-        <v>-0.13087042986079245</v>
-      </c>
-      <c r="E37" s="130">
-        <f>E32/D32-1</f>
-        <v>0.17504180234093103</v>
-      </c>
-      <c r="F37" s="129">
-        <f>F32/E32-1</f>
-        <v>-1</v>
-      </c>
-      <c r="N37" s="3">
-        <f t="shared" ref="N37" si="27">N32/J32-1</f>
-        <v>3.79181258302137E-2</v>
-      </c>
-      <c r="O37" s="3">
-        <f t="shared" ref="O37" si="28">O32/K32-1</f>
-        <v>0.13281844881975413</v>
-      </c>
-      <c r="P37" s="3">
-        <f t="shared" ref="P37" si="29">P32/L32-1</f>
-        <v>1.3870287988761416</v>
-      </c>
-      <c r="Q37" s="3">
-        <f t="shared" ref="Q37" si="30">Q32/M32-1</f>
-        <v>-0.12086843810758263</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q37" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="R37" s="129">
-        <f>R32/N32-1</f>
-        <v>-0.50285049447353114</v>
+        <f>R31/N31-1</f>
+        <v>-0.12971487161587292</v>
       </c>
       <c r="S37" s="129">
-        <f>S32/O32-1</f>
-        <v>-0.5286153255233339</v>
+        <f>S31/O31-1</f>
+        <v>-0.17439444884672217</v>
       </c>
       <c r="T37" s="129">
-        <f>T32/P32-1</f>
-        <v>-0.38930848455125067</v>
+        <f>T31/P31-1</f>
+        <v>-0.20401199687038163</v>
+      </c>
+      <c r="U37" s="129" t="e">
+        <f>U31/Q31-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="154" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="130"/>
+      <c r="P38" s="130"/>
+      <c r="Q38" s="130"/>
+      <c r="R38" s="130"/>
+      <c r="S38" s="130"/>
+      <c r="T38" s="130"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="151" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10">
+        <v>51779</v>
+      </c>
+      <c r="O42" s="10">
+        <f>112123-N42</f>
+        <v>60344</v>
+      </c>
+      <c r="P42" s="10">
+        <f>164596-O42-N42</f>
+        <v>52473</v>
+      </c>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10">
+        <v>54449</v>
+      </c>
+      <c r="S42" s="10">
+        <f>105574-R42</f>
+        <v>51125</v>
+      </c>
+      <c r="T42" s="10">
+        <f>146571-S42-R42</f>
+        <v>40997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10">
+        <v>119234</v>
+      </c>
+      <c r="O43" s="10">
+        <f>262343-N43</f>
+        <v>143109</v>
+      </c>
+      <c r="P43" s="10">
+        <f>405280-O43-N43</f>
+        <v>142937</v>
+      </c>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10">
+        <v>129315</v>
+      </c>
+      <c r="S43" s="10">
+        <f>272218-R43</f>
+        <v>142903</v>
+      </c>
+      <c r="T43" s="10">
+        <f>389527-S43-R43</f>
+        <v>117309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10">
+        <v>75994</v>
+      </c>
+      <c r="O44" s="10">
+        <f>140989-N44</f>
+        <v>64995</v>
+      </c>
+      <c r="P44" s="10">
+        <f>198543-O44-N44</f>
+        <v>57554</v>
+      </c>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10">
+        <v>55171</v>
+      </c>
+      <c r="S44" s="10">
+        <f>114165-R44</f>
+        <v>58994</v>
+      </c>
+      <c r="T44" s="10">
+        <f>170163-S44-R44</f>
+        <v>55998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10">
+        <v>12691</v>
+      </c>
+      <c r="O45" s="10">
+        <f>27155-N45</f>
+        <v>14464</v>
+      </c>
+      <c r="P45" s="10">
+        <f>41885-O45-N45</f>
+        <v>14730</v>
+      </c>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10">
+        <v>15136</v>
+      </c>
+      <c r="S45" s="10">
+        <f>30249-R45</f>
+        <v>15113</v>
+      </c>
+      <c r="T45" s="10">
+        <f>40868-S45-R45</f>
+        <v>10619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10">
+        <v>2657</v>
+      </c>
+      <c r="O46" s="10">
+        <f>6446-N46</f>
+        <v>3789</v>
+      </c>
+      <c r="P46" s="10">
+        <f>9015-O46-N46</f>
+        <v>2569</v>
+      </c>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10">
+        <v>2337</v>
+      </c>
+      <c r="S46" s="10">
+        <f>5489-R46</f>
+        <v>3152</v>
+      </c>
+      <c r="T46" s="10">
+        <f>8147-S46-R46</f>
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10">
+        <v>67452</v>
+      </c>
+      <c r="O47" s="10">
+        <f>138100-N47</f>
+        <v>70648</v>
+      </c>
+      <c r="P47" s="10">
+        <f>216444-O47-N47</f>
+        <v>78344</v>
+      </c>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10">
+        <v>80863</v>
+      </c>
+      <c r="S47" s="10">
+        <f>185243-R47</f>
+        <v>104380</v>
+      </c>
+      <c r="T47" s="10">
+        <f>287009-S47-R47</f>
+        <v>101766</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10">
+        <v>95885</v>
+      </c>
+      <c r="O48" s="10">
+        <f>195664-N48</f>
+        <v>99779</v>
+      </c>
+      <c r="P48" s="10">
+        <f>295242-O48-N48</f>
+        <v>99578</v>
+      </c>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10">
+        <v>98160</v>
+      </c>
+      <c r="S48" s="10">
+        <f>193162-R48</f>
+        <v>95002</v>
+      </c>
+      <c r="T48" s="10">
+        <f>272584-S48-R48</f>
+        <v>79422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10">
+        <v>68392</v>
+      </c>
+      <c r="O49" s="10">
+        <f>136201-N49</f>
+        <v>67809</v>
+      </c>
+      <c r="P49" s="10">
+        <f>207335-O49-N49</f>
+        <v>71134</v>
+      </c>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10">
+        <v>68263</v>
+      </c>
+      <c r="S49" s="10">
+        <f>136842-R49</f>
+        <v>68579</v>
+      </c>
+      <c r="T49" s="10">
+        <f>192405-S49-R49</f>
+        <v>55563</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10">
+        <v>13578</v>
+      </c>
+      <c r="O50" s="10">
+        <f>28074-N50</f>
+        <v>14496</v>
+      </c>
+      <c r="P50" s="10">
+        <f>42703-O50-N50</f>
+        <v>14629</v>
+      </c>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10">
+        <v>15745</v>
+      </c>
+      <c r="S50" s="10">
+        <f>31068-R50</f>
+        <v>15323</v>
+      </c>
+      <c r="T50" s="10">
+        <f>42288-S50-R50</f>
+        <v>11220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10">
+        <v>9567</v>
+      </c>
+      <c r="O51" s="10">
+        <f>21172-N51</f>
+        <v>11605</v>
+      </c>
+      <c r="P51" s="10">
+        <f>35088-O51-N51</f>
+        <v>13916</v>
+      </c>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10">
+        <v>9411</v>
+      </c>
+      <c r="S51" s="10">
+        <f>18582-R51</f>
+        <v>9171</v>
+      </c>
+      <c r="T51" s="10">
+        <f>28438-S51-R51</f>
+        <v>9856</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10">
+        <v>434</v>
+      </c>
+      <c r="O52" s="10">
+        <f>2484-N52</f>
+        <v>2050</v>
+      </c>
+      <c r="P52" s="10">
+        <f>4450-O52-N52</f>
+        <v>1966</v>
+      </c>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10">
+        <v>2065</v>
+      </c>
+      <c r="S52" s="10">
+        <f>3807-R52</f>
+        <v>1742</v>
+      </c>
+      <c r="T52" s="10">
+        <f>5470-S52-R52</f>
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10">
+        <v>294</v>
+      </c>
+      <c r="O53" s="10">
+        <f>575-N53</f>
+        <v>281</v>
+      </c>
+      <c r="P53" s="10">
+        <f>686-O53-N53</f>
+        <v>111</v>
+      </c>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10">
+        <v>18</v>
+      </c>
+      <c r="S53" s="10">
+        <f>24-R53</f>
+        <v>6</v>
+      </c>
+      <c r="T53" s="10">
+        <f>33-S53-R53</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11">
+        <f t="shared" ref="M54:S54" si="19">SUM(M42:M53)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
+        <f t="shared" si="19"/>
+        <v>517957</v>
+      </c>
+      <c r="O54" s="11">
+        <f t="shared" si="19"/>
+        <v>553369</v>
+      </c>
+      <c r="P54" s="11">
+        <f t="shared" si="19"/>
+        <v>549941</v>
+      </c>
+      <c r="Q54" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="11">
+        <f t="shared" si="19"/>
+        <v>530933</v>
+      </c>
+      <c r="S54" s="11">
+        <f t="shared" si="19"/>
+        <v>565490</v>
+      </c>
+      <c r="T54" s="11">
+        <f>SUM(T42:T53)</f>
+        <v>487080</v>
+      </c>
+      <c r="U54" s="11">
+        <f>SUM(U42:U53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10">
+        <v>55979</v>
+      </c>
+      <c r="O55" s="10">
+        <f>133927-N55</f>
+        <v>77948</v>
+      </c>
+      <c r="P55" s="10">
+        <f>217138-O55-N55</f>
+        <v>83211</v>
+      </c>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10">
+        <v>78682</v>
+      </c>
+      <c r="S55" s="10">
+        <f>179554-R55</f>
+        <v>100872</v>
+      </c>
+      <c r="T55" s="10">
+        <f>266152-S55-R55</f>
+        <v>86598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10">
+        <v>41514</v>
+      </c>
+      <c r="O56" s="10">
+        <f>83427-N56</f>
+        <v>41913</v>
+      </c>
+      <c r="P56" s="10">
+        <f>125891-O56-N56</f>
+        <v>42464</v>
+      </c>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10">
+        <v>38334</v>
+      </c>
+      <c r="S56" s="10">
+        <f>76265-R56</f>
+        <v>37931</v>
+      </c>
+      <c r="T56" s="10">
+        <f>112698-S56-R56</f>
+        <v>36433</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18312,13 +18737,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -18329,13 +18754,13 @@
         <v>89.800003000000004</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
         <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -18349,7 +18774,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -18364,7 +18789,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -26979,19 +27404,19 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="140" t="s">
         <v>85</v>
-      </c>
-      <c r="H1" s="140" t="s">
-        <v>86</v>
       </c>
       <c r="I1" s="141"/>
       <c r="J1" s="141"/>
@@ -27029,22 +27454,22 @@
         <v>-3.1451940174577309E-2</v>
       </c>
       <c r="H3" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="J3" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="K3" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="L3" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="M3" s="66" t="s">
         <v>91</v>
-      </c>
-      <c r="M3" s="66" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -27456,7 +27881,7 @@
       </c>
       <c r="H15" s="78"/>
       <c r="I15" s="79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J15" s="79">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
@@ -27501,7 +27926,7 @@
         <v>-1.5645333076088619E-2</v>
       </c>
       <c r="H17" s="143" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I17" s="144"/>
       <c r="M17" s="82"/>
@@ -27533,7 +27958,7 @@
         <v>-2.2477521916144383E-3</v>
       </c>
       <c r="H19" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I19" s="120">
         <f>AVERAGE(D:D)</f>
@@ -27553,7 +27978,7 @@
         <v>-1.135800000000009E-2</v>
       </c>
       <c r="H20" s="83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I20" s="120">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
@@ -27573,7 +27998,7 @@
         <v>-3.0636645060714285E-2</v>
       </c>
       <c r="H21" s="83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" s="120">
         <f>MEDIAN(D:D)</f>
@@ -27593,7 +28018,7 @@
         <v>-4.0524909641838081E-3</v>
       </c>
       <c r="H22" s="83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I22" s="120" t="e">
         <f>MODE(D:D)</f>
@@ -27613,7 +28038,7 @@
         <v>-2.5551638224196038E-2</v>
       </c>
       <c r="H23" s="83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I23" s="120">
         <f>_xlfn.STDEV.S(D:D)</f>
@@ -27633,7 +28058,7 @@
         <v>-5.3013639529556622E-2</v>
       </c>
       <c r="H24" s="83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I24" s="120">
         <f>_xlfn.VAR.S(D:D)</f>
@@ -27653,7 +28078,7 @@
         <v>4.0036605811864634E-2</v>
       </c>
       <c r="H25" s="83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I25" s="121">
         <f>KURT(D:D)</f>
@@ -27673,7 +28098,7 @@
         <v>-3.0175294321891366E-2</v>
       </c>
       <c r="H26" s="83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I26" s="121">
         <f>SKEW(D:D)</f>
@@ -27693,7 +28118,7 @@
         <v>9.7661905833101414E-2</v>
       </c>
       <c r="H27" s="83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I27" s="120">
         <f>I29-I28</f>
@@ -27713,7 +28138,7 @@
         <v>-7.8545778325433857E-2</v>
       </c>
       <c r="H28" s="83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I28" s="120">
         <f>MIN(D:D)</f>
@@ -27733,7 +28158,7 @@
         <v>-1.6335486011820888E-2</v>
       </c>
       <c r="H29" s="83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I29" s="120">
         <f>MAX(D:D)</f>
@@ -27753,7 +28178,7 @@
         <v>1.5467350196510354E-2</v>
       </c>
       <c r="H30" s="83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I30" s="121">
         <f>SUM(D:D)</f>
@@ -27773,7 +28198,7 @@
         <v>2.4719213483146429E-3</v>
       </c>
       <c r="H31" s="84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I31" s="61">
         <f>COUNT(D:D)</f>
@@ -27808,16 +28233,16 @@
       </c>
       <c r="H33" s="87"/>
       <c r="I33" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="J33" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="K33" s="88" t="s">
+      <c r="L33" s="89" t="s">
         <v>107</v>
-      </c>
-      <c r="L33" s="89" t="s">
-        <v>108</v>
       </c>
       <c r="M33" s="82"/>
     </row>
@@ -27833,7 +28258,7 @@
         <v>-2.1717719001449587E-2</v>
       </c>
       <c r="H34" s="90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="76">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
@@ -27865,7 +28290,7 @@
         <v>3.1988578566072734E-2</v>
       </c>
       <c r="H35" s="90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="76">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
@@ -27897,7 +28322,7 @@
         <v>-1.889054416120306E-2</v>
       </c>
       <c r="H36" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="79">
         <v>0</v>
@@ -27946,22 +28371,22 @@
         <v>-2.483284693885901E-2</v>
       </c>
       <c r="H38" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="I38" s="88" t="s">
+      <c r="J38" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="J38" s="88" t="s">
+      <c r="K38" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="K38" s="88" t="s">
+      <c r="L38" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="L38" s="88" t="s">
+      <c r="M38" s="89" t="s">
         <v>116</v>
-      </c>
-      <c r="M38" s="89" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -28092,7 +28517,7 @@
         <v>3.9420018838604687E-2</v>
       </c>
       <c r="H43" s="147" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I43" s="148"/>
       <c r="J43" s="148"/>
@@ -28609,7 +29034,7 @@
         <v>4.3820784766912535E-3</v>
       </c>
       <c r="H60" s="109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I60" s="110"/>
     </row>
@@ -28625,7 +29050,7 @@
         <v>-5.2309835556187956E-3</v>
       </c>
       <c r="H61" s="111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I61" s="112"/>
     </row>
@@ -28654,7 +29079,7 @@
         <v>-3.1551271101928124E-2</v>
       </c>
       <c r="H63" s="109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I63" s="114"/>
     </row>
@@ -28670,7 +29095,7 @@
         <v>5.2863511104166427E-3</v>
       </c>
       <c r="H64" s="115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I64" s="116">
         <f>I63*(1-I60)</f>
@@ -28689,7 +29114,7 @@
         <v>-1.0462028708952631E-2</v>
       </c>
       <c r="H65" s="111" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I65" s="117">
         <f>I63*(1+I61)</f>
